--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_22_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_22_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-81579.32857857726</v>
+        <v>-82278.30775989237</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3294423.900001751</v>
+        <v>3294423.900001761</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681855</v>
+        <v>590120.9651681854</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>88.26412090509707</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="H11" t="n">
-        <v>120.4693833830714</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>17.84531197871212</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>120.4693833830714</v>
+        <v>106.1094328838077</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>120.4693833830714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>107.7293247704514</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>76.75987979576297</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="U12" t="n">
-        <v>84.61257483987812</v>
+        <v>21.83412955016509</v>
       </c>
       <c r="V12" t="n">
-        <v>29.10430198823047</v>
+        <v>78.27596629816067</v>
       </c>
       <c r="W12" t="n">
-        <v>47.18491769857539</v>
+        <v>47.18491769857482</v>
       </c>
       <c r="X12" t="n">
-        <v>1.657200557053613</v>
+        <v>1.657200557053045</v>
       </c>
       <c r="Y12" t="n">
-        <v>120.4693833830714</v>
+        <v>0.8667223671608042</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>15.41821348478718</v>
+        <v>15.41821348478661</v>
       </c>
       <c r="T13" t="n">
-        <v>24.51429709665629</v>
+        <v>87.69577676580545</v>
       </c>
       <c r="U13" t="n">
-        <v>83.23489997993624</v>
+        <v>83.23489997993568</v>
       </c>
       <c r="V13" t="n">
-        <v>50.1319220155145</v>
+        <v>50.13192201551394</v>
       </c>
       <c r="W13" t="n">
-        <v>120.4693833830714</v>
+        <v>83.28814783599032</v>
       </c>
       <c r="X13" t="n">
-        <v>49.33617500294989</v>
+        <v>23.33593088088404</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.94424481634357</v>
+        <v>15.944244816343</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>120.4693833830714</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>106.1094328838092</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>120.4693833830714</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="W14" t="n">
-        <v>120.4693833830714</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>106.1094328838077</v>
       </c>
     </row>
     <row r="15">
@@ -1698,13 +1698,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="H15" t="n">
-        <v>107.7293247704514</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>76.75987979576297</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>77.12411314855666</v>
       </c>
       <c r="S15" t="n">
-        <v>105.2569931570658</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>21.83412955016566</v>
+        <v>21.83412955016515</v>
       </c>
       <c r="V15" t="n">
-        <v>29.10430198823047</v>
+        <v>29.10430198822996</v>
       </c>
       <c r="W15" t="n">
-        <v>47.18491769857539</v>
+        <v>97.64954921276478</v>
       </c>
       <c r="X15" t="n">
-        <v>1.657200557053613</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.8667223671613726</v>
+        <v>0.866722367160861</v>
       </c>
     </row>
     <row r="16">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>63.18147966914935</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.287923831177483</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,31 +1807,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>59.89355583796826</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>15.41821348478718</v>
+        <v>15.41821348478667</v>
       </c>
       <c r="T16" t="n">
-        <v>24.51429709665629</v>
+        <v>24.51429709665578</v>
       </c>
       <c r="U16" t="n">
-        <v>83.23489997993624</v>
+        <v>83.23489997993573</v>
       </c>
       <c r="V16" t="n">
-        <v>50.1319220155145</v>
+        <v>50.13192201551399</v>
       </c>
       <c r="W16" t="n">
-        <v>83.28814783599088</v>
+        <v>83.28814783599037</v>
       </c>
       <c r="X16" t="n">
-        <v>23.3359308808846</v>
+        <v>23.33593088088409</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.94424481634357</v>
+        <v>15.94424481634306</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>55.18318846887604</v>
+        <v>55.18318846887541</v>
       </c>
       <c r="C17" t="n">
-        <v>38.45187415642363</v>
+        <v>38.451874156423</v>
       </c>
       <c r="D17" t="n">
-        <v>28.07151123207939</v>
+        <v>28.07151123207876</v>
       </c>
       <c r="E17" t="n">
-        <v>54.58481423276845</v>
+        <v>54.58481423276783</v>
       </c>
       <c r="F17" t="n">
-        <v>78.76064195802184</v>
+        <v>78.76064195802121</v>
       </c>
       <c r="G17" t="n">
-        <v>85.7926172870724</v>
+        <v>85.79261728707176</v>
       </c>
       <c r="H17" t="n">
-        <v>4.193812382378851</v>
+        <v>4.193812382378069</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>21.99689547803558</v>
+        <v>21.99689547803534</v>
       </c>
       <c r="X17" t="n">
-        <v>42.32837760865038</v>
+        <v>42.32837760864976</v>
       </c>
       <c r="Y17" t="n">
-        <v>58.15385022871681</v>
+        <v>58.15385022871618</v>
       </c>
     </row>
     <row r="18">
@@ -1935,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>72.69482332256095</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>76.75987979576297</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>77.12411314855666</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.4693833830714</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>120.4693833830714</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>106.1094328838077</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>106.6215106992286</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>59.89355583796826</v>
       </c>
       <c r="R19" t="n">
-        <v>106.6215106992269</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>120.4693833830714</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>120.4693833830697</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>55.18318846887604</v>
+        <v>55.18318846887541</v>
       </c>
       <c r="C20" t="n">
-        <v>38.45187415642363</v>
+        <v>38.451874156423</v>
       </c>
       <c r="D20" t="n">
-        <v>28.07151123207939</v>
+        <v>28.07151123207876</v>
       </c>
       <c r="E20" t="n">
-        <v>54.58481423276845</v>
+        <v>54.58481423276783</v>
       </c>
       <c r="F20" t="n">
-        <v>78.76064195802184</v>
+        <v>78.76064195802121</v>
       </c>
       <c r="G20" t="n">
-        <v>85.79261728707239</v>
+        <v>85.79261728707176</v>
       </c>
       <c r="H20" t="n">
-        <v>4.193812382378667</v>
+        <v>4.193812382378042</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>21.99689547803558</v>
+        <v>21.99689547803496</v>
       </c>
       <c r="X20" t="n">
-        <v>42.32837760865038</v>
+        <v>42.32837760864976</v>
       </c>
       <c r="Y20" t="n">
-        <v>58.15385022871681</v>
+        <v>58.15385022871618</v>
       </c>
     </row>
     <row r="21">
@@ -2163,19 +2163,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>120.4693833830714</v>
+        <v>118.849491496426</v>
       </c>
       <c r="E21" t="n">
-        <v>120.4693833830714</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>107.7293247704514</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>77.12411314855666</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>28.98531973525259</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>120.4693833830714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>106.6215106992269</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>120.4693833830714</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>59.89355583796826</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>46.04568315412724</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>120.4693833830697</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>55.18318846887604</v>
+        <v>55.18318846887541</v>
       </c>
       <c r="C23" t="n">
-        <v>38.45187415642363</v>
+        <v>38.451874156423</v>
       </c>
       <c r="D23" t="n">
-        <v>28.07151123207939</v>
+        <v>28.07151123207876</v>
       </c>
       <c r="E23" t="n">
-        <v>54.58481423276845</v>
+        <v>54.58481423276783</v>
       </c>
       <c r="F23" t="n">
-        <v>78.76064195802184</v>
+        <v>78.76064195802121</v>
       </c>
       <c r="G23" t="n">
-        <v>85.79261728707239</v>
+        <v>85.79261728707176</v>
       </c>
       <c r="H23" t="n">
-        <v>4.193812382378667</v>
+        <v>4.193812382378042</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>21.99689547803558</v>
+        <v>21.99689547803496</v>
       </c>
       <c r="X23" t="n">
-        <v>42.32837760865038</v>
+        <v>42.32837760864976</v>
       </c>
       <c r="Y23" t="n">
-        <v>58.15385022871681</v>
+        <v>58.15385022871618</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>106.1094328838092</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>120.4693833830714</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>120.4693833830714</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>120.4693833830714</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>106.1094328838077</v>
       </c>
     </row>
     <row r="25">
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,10 +2494,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>120.4693833830714</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>72.06468585899248</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>59.89355583796826</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>106.6215106992269</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>118.1103690131197</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>221.6708233438643</v>
+        <v>221.6708233438639</v>
       </c>
       <c r="C26" t="n">
-        <v>204.9395090314119</v>
+        <v>204.9395090314115</v>
       </c>
       <c r="D26" t="n">
-        <v>194.5591461070676</v>
+        <v>194.5591461070672</v>
       </c>
       <c r="E26" t="n">
-        <v>221.0724491077567</v>
+        <v>221.0724491077563</v>
       </c>
       <c r="F26" t="n">
-        <v>245.2482768330101</v>
+        <v>245.2482768330097</v>
       </c>
       <c r="G26" t="n">
-        <v>252.2802521620606</v>
+        <v>252.2802521620602</v>
       </c>
       <c r="H26" t="n">
-        <v>170.6814472573669</v>
+        <v>170.6814472573665</v>
       </c>
       <c r="I26" t="n">
-        <v>22.78727869617339</v>
+        <v>22.78727869617299</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.76645030977497</v>
+        <v>31.76645030977456</v>
       </c>
       <c r="T26" t="n">
-        <v>58.604154382606</v>
+        <v>58.6041543826056</v>
       </c>
       <c r="U26" t="n">
-        <v>89.38986280147449</v>
+        <v>89.3898628014741</v>
       </c>
       <c r="V26" t="n">
-        <v>166.4876348749886</v>
+        <v>166.4876348749882</v>
       </c>
       <c r="W26" t="n">
-        <v>188.4845303530238</v>
+        <v>188.4845303530234</v>
       </c>
       <c r="X26" t="n">
-        <v>208.8160124836386</v>
+        <v>208.8160124836382</v>
       </c>
       <c r="Y26" t="n">
-        <v>224.641485103705</v>
+        <v>224.6414851037046</v>
       </c>
     </row>
     <row r="27">
@@ -2646,13 +2646,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>129.3017226269078</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>107.7293247704514</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>21.57239785645736</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>163.7050004481646</v>
+        <v>1.659413800633438</v>
       </c>
       <c r="T27" t="n">
-        <v>35.19625393430959</v>
+        <v>197.2418405818404</v>
       </c>
       <c r="U27" t="n">
-        <v>62.59297195405954</v>
+        <v>62.59297195405914</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.03810484315304</v>
+        <v>18.03810484315264</v>
       </c>
       <c r="C28" t="n">
-        <v>5.290966283671565</v>
+        <v>5.290966283671168</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>5.606744021349762</v>
+        <v>5.606744021349364</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.6775668401481774</v>
+        <v>0.6775668401477795</v>
       </c>
       <c r="S28" t="n">
-        <v>56.17705588868105</v>
+        <v>56.17705588868066</v>
       </c>
       <c r="T28" t="n">
-        <v>65.27313950055017</v>
+        <v>65.27313950054977</v>
       </c>
       <c r="U28" t="n">
-        <v>123.9937423838301</v>
+        <v>123.9937423838297</v>
       </c>
       <c r="V28" t="n">
-        <v>90.89076441940838</v>
+        <v>90.89076441940799</v>
       </c>
       <c r="W28" t="n">
-        <v>124.0469902398848</v>
+        <v>124.0469902398844</v>
       </c>
       <c r="X28" t="n">
-        <v>64.09477328477848</v>
+        <v>64.09477328477809</v>
       </c>
       <c r="Y28" t="n">
-        <v>56.70308722023745</v>
+        <v>56.70308722023705</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>221.6708233438643</v>
+        <v>221.6708233438639</v>
       </c>
       <c r="C29" t="n">
-        <v>204.9395090314119</v>
+        <v>204.9395090314115</v>
       </c>
       <c r="D29" t="n">
-        <v>194.5591461070676</v>
+        <v>194.5591461070672</v>
       </c>
       <c r="E29" t="n">
-        <v>221.0724491077567</v>
+        <v>221.0724491077563</v>
       </c>
       <c r="F29" t="n">
-        <v>245.2482768330101</v>
+        <v>245.2482768330097</v>
       </c>
       <c r="G29" t="n">
-        <v>252.2802521620606</v>
+        <v>252.2802521620602</v>
       </c>
       <c r="H29" t="n">
-        <v>170.6814472573669</v>
+        <v>170.6814472573665</v>
       </c>
       <c r="I29" t="n">
-        <v>22.78727869617339</v>
+        <v>22.78727869617299</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.76645030977497</v>
+        <v>31.76645030977456</v>
       </c>
       <c r="T29" t="n">
-        <v>58.604154382606</v>
+        <v>58.6041543826056</v>
       </c>
       <c r="U29" t="n">
-        <v>89.38986280147449</v>
+        <v>89.3898628014741</v>
       </c>
       <c r="V29" t="n">
-        <v>166.4876348749886</v>
+        <v>166.4876348749882</v>
       </c>
       <c r="W29" t="n">
-        <v>188.4845303530238</v>
+        <v>188.4845303530234</v>
       </c>
       <c r="X29" t="n">
-        <v>208.8160124836386</v>
+        <v>208.8160124836382</v>
       </c>
       <c r="Y29" t="n">
-        <v>224.641485103705</v>
+        <v>224.6414851037046</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>8.979997279870219</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
         <v>146.1124235746456</v>
@@ -2883,10 +2883,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>129.301722626908</v>
+        <v>135.7402095277565</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>107.7293247704514</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>1.659413800633836</v>
+        <v>1.659413800633438</v>
       </c>
       <c r="T30" t="n">
-        <v>197.2418405818404</v>
+        <v>35.19625393430919</v>
       </c>
       <c r="U30" t="n">
         <v>224.6385586015903</v>
@@ -2934,7 +2934,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
-        <v>204.4616296084783</v>
+        <v>90.29381793717928</v>
       </c>
       <c r="Y30" t="n">
         <v>203.671151418586</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.03810484315304</v>
+        <v>18.03810484315264</v>
       </c>
       <c r="C31" t="n">
-        <v>5.290966283671565</v>
+        <v>5.290966283671168</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>5.606744021349762</v>
+        <v>5.606744021349364</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.6775668401481774</v>
+        <v>0.6775668401477795</v>
       </c>
       <c r="S31" t="n">
-        <v>56.17705588868105</v>
+        <v>56.17705588868066</v>
       </c>
       <c r="T31" t="n">
-        <v>65.27313950055017</v>
+        <v>65.27313950054977</v>
       </c>
       <c r="U31" t="n">
-        <v>123.9937423838301</v>
+        <v>123.9937423838297</v>
       </c>
       <c r="V31" t="n">
-        <v>90.89076441940838</v>
+        <v>90.89076441940799</v>
       </c>
       <c r="W31" t="n">
-        <v>124.0469902398848</v>
+        <v>124.0469902398844</v>
       </c>
       <c r="X31" t="n">
-        <v>64.09477328477848</v>
+        <v>64.09477328477809</v>
       </c>
       <c r="Y31" t="n">
-        <v>56.70308722023745</v>
+        <v>56.70308722023705</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>221.6708233438642</v>
+        <v>221.6708233438639</v>
       </c>
       <c r="C32" t="n">
-        <v>204.9395090314118</v>
+        <v>204.9395090314115</v>
       </c>
       <c r="D32" t="n">
-        <v>194.5591461070676</v>
+        <v>194.5591461070672</v>
       </c>
       <c r="E32" t="n">
-        <v>221.0724491077567</v>
+        <v>221.0724491077563</v>
       </c>
       <c r="F32" t="n">
-        <v>245.24827683301</v>
+        <v>245.2482768330097</v>
       </c>
       <c r="G32" t="n">
-        <v>252.2802521620606</v>
+        <v>252.2802521620602</v>
       </c>
       <c r="H32" t="n">
-        <v>170.6814472573669</v>
+        <v>170.6814472573665</v>
       </c>
       <c r="I32" t="n">
-        <v>22.78727869617336</v>
+        <v>22.78727869617299</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.76645030977494</v>
+        <v>31.76645030977457</v>
       </c>
       <c r="T32" t="n">
-        <v>58.60415438260597</v>
+        <v>58.6041543826056</v>
       </c>
       <c r="U32" t="n">
-        <v>89.38986280147446</v>
+        <v>89.3898628014741</v>
       </c>
       <c r="V32" t="n">
-        <v>166.4876348749885</v>
+        <v>166.4876348749882</v>
       </c>
       <c r="W32" t="n">
-        <v>188.4845303530238</v>
+        <v>188.4845303530234</v>
       </c>
       <c r="X32" t="n">
-        <v>208.8160124836386</v>
+        <v>208.8160124836382</v>
       </c>
       <c r="Y32" t="n">
-        <v>224.641485103705</v>
+        <v>224.6414851037046</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>51.20431393904507</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
         <v>171.025583927401</v>
@@ -3114,19 +3114,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>100.8459517678683</v>
       </c>
       <c r="F33" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>135.7402095277565</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>107.7293247704514</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>76.75987979576297</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>1.659413800633808</v>
+        <v>1.659413800633438</v>
       </c>
       <c r="T33" t="n">
-        <v>197.2418405818404</v>
+        <v>35.19625393430919</v>
       </c>
       <c r="U33" t="n">
         <v>224.6385586015903</v>
@@ -3168,7 +3168,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
-        <v>87.94376010246924</v>
+        <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
         <v>204.4616296084783</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>18.03810484315301</v>
+        <v>18.03810484315264</v>
       </c>
       <c r="C34" t="n">
-        <v>5.290966283671537</v>
+        <v>5.290966283671168</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>5.606744021349733</v>
+        <v>5.606744021349364</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.6775668401481489</v>
+        <v>0.6775668401477795</v>
       </c>
       <c r="S34" t="n">
-        <v>56.17705588868102</v>
+        <v>56.17705588868066</v>
       </c>
       <c r="T34" t="n">
-        <v>65.27313950055014</v>
+        <v>65.27313950054977</v>
       </c>
       <c r="U34" t="n">
-        <v>123.9937423838301</v>
+        <v>123.9937423838297</v>
       </c>
       <c r="V34" t="n">
-        <v>90.89076441940836</v>
+        <v>90.89076441940799</v>
       </c>
       <c r="W34" t="n">
-        <v>124.0469902398847</v>
+        <v>124.0469902398844</v>
       </c>
       <c r="X34" t="n">
-        <v>64.09477328477846</v>
+        <v>64.09477328477809</v>
       </c>
       <c r="Y34" t="n">
-        <v>56.70308722023742</v>
+        <v>56.70308722023705</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>220.5138018522857</v>
       </c>
       <c r="H35" t="n">
-        <v>138.9149969475919</v>
+        <v>138.914996947592</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,19 +3317,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>26.83770407283103</v>
+        <v>26.83770407283106</v>
       </c>
       <c r="U35" t="n">
-        <v>57.62341249169953</v>
+        <v>57.62341249169955</v>
       </c>
       <c r="V35" t="n">
         <v>134.7211845652136</v>
       </c>
       <c r="W35" t="n">
-        <v>156.7180800432488</v>
+        <v>156.7180800432489</v>
       </c>
       <c r="X35" t="n">
-        <v>177.0495621738636</v>
+        <v>177.0495621738637</v>
       </c>
       <c r="Y35" t="n">
         <v>192.8750347939301</v>
@@ -3345,10 +3345,10 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>15.16409132426586</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
         <v>156.0334337071738</v>
@@ -3360,10 +3360,10 @@
         <v>135.7402095277565</v>
       </c>
       <c r="H36" t="n">
-        <v>107.7293247704514</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51263565451963</v>
+        <v>76.75987979576297</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>77.12411314855666</v>
       </c>
       <c r="S36" t="n">
-        <v>163.7050004481646</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.2418405818404</v>
+        <v>3.429803624534651</v>
       </c>
       <c r="U36" t="n">
         <v>224.6385586015903</v>
@@ -3408,10 +3408,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
-        <v>10.64959265117253</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.859114461280285</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.41060557890609</v>
+        <v>24.64534058921929</v>
       </c>
       <c r="T37" t="n">
-        <v>33.5066891907752</v>
+        <v>33.50668919077523</v>
       </c>
       <c r="U37" t="n">
-        <v>92.22729207405516</v>
+        <v>92.22729207405519</v>
       </c>
       <c r="V37" t="n">
-        <v>59.12431410963342</v>
+        <v>59.12431410963345</v>
       </c>
       <c r="W37" t="n">
-        <v>92.2805399301098</v>
+        <v>92.28053993010982</v>
       </c>
       <c r="X37" t="n">
-        <v>32.56305798531683</v>
+        <v>32.32832297500354</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.93663691046248</v>
+        <v>24.93663691046251</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>220.5138018522857</v>
       </c>
       <c r="H38" t="n">
-        <v>138.914996947592</v>
+        <v>138.9149969475919</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,19 +3554,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>26.83770407283106</v>
+        <v>26.83770407283103</v>
       </c>
       <c r="U38" t="n">
-        <v>57.62341249169955</v>
+        <v>57.62341249169953</v>
       </c>
       <c r="V38" t="n">
         <v>134.7211845652136</v>
       </c>
       <c r="W38" t="n">
-        <v>156.7180800432489</v>
+        <v>156.7180800432488</v>
       </c>
       <c r="X38" t="n">
-        <v>177.0495621738637</v>
+        <v>177.0495621738636</v>
       </c>
       <c r="Y38" t="n">
         <v>192.8750347939301</v>
@@ -3594,13 +3594,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>96.06846562061726</v>
       </c>
       <c r="H39" t="n">
         <v>107.7293247704514</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>76.75987979576297</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>77.12411314855666</v>
       </c>
       <c r="S39" t="n">
-        <v>26.03338509848914</v>
+        <v>163.7050004481646</v>
       </c>
       <c r="T39" t="n">
         <v>197.2418405818404</v>
       </c>
       <c r="U39" t="n">
-        <v>30.8265216442846</v>
+        <v>224.6385586015903</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>38.09669408234939</v>
       </c>
       <c r="W39" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>10.64959265117253</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>9.859114461280285</v>
       </c>
     </row>
     <row r="40">
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.41060557890612</v>
+        <v>24.41060557890609</v>
       </c>
       <c r="T40" t="n">
-        <v>33.50668919077523</v>
+        <v>33.74142420108858</v>
       </c>
       <c r="U40" t="n">
-        <v>92.22729207405519</v>
+        <v>92.22729207405516</v>
       </c>
       <c r="V40" t="n">
-        <v>59.12431410963345</v>
+        <v>59.12431410963342</v>
       </c>
       <c r="W40" t="n">
-        <v>92.28053993010982</v>
+        <v>92.2805399301098</v>
       </c>
       <c r="X40" t="n">
-        <v>32.32832297500354</v>
+        <v>32.32832297500352</v>
       </c>
       <c r="Y40" t="n">
-        <v>25.17137192077562</v>
+        <v>24.93663691046248</v>
       </c>
     </row>
     <row r="41">
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>189.9043730340893</v>
+        <v>189.9043730340894</v>
       </c>
       <c r="C41" t="n">
-        <v>173.1730587216369</v>
+        <v>173.173058721637</v>
       </c>
       <c r="D41" t="n">
         <v>162.7926957972927</v>
       </c>
       <c r="E41" t="n">
-        <v>189.3059987979817</v>
+        <v>189.3059987979818</v>
       </c>
       <c r="F41" t="n">
-        <v>213.4818265232351</v>
+        <v>213.4818265232352</v>
       </c>
       <c r="G41" t="n">
         <v>220.5138018522857</v>
@@ -3791,13 +3791,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>26.83770407283106</v>
+        <v>26.83770407283112</v>
       </c>
       <c r="U41" t="n">
-        <v>57.62341249169955</v>
+        <v>57.62341249169961</v>
       </c>
       <c r="V41" t="n">
-        <v>134.7211845652136</v>
+        <v>134.7211845652137</v>
       </c>
       <c r="W41" t="n">
         <v>156.7180800432489</v>
@@ -3806,7 +3806,7 @@
         <v>177.0495621738637</v>
       </c>
       <c r="Y41" t="n">
-        <v>192.8750347939301</v>
+        <v>192.8750347939302</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>171.025583927401</v>
@@ -3831,10 +3831,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.7402095277565</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>107.7293247704514</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3870,10 +3870,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>3.429803624534651</v>
+        <v>197.2418405818404</v>
       </c>
       <c r="U42" t="n">
-        <v>222.6610589427741</v>
+        <v>222.2320323531191</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.41060557890612</v>
+        <v>24.64534058921895</v>
       </c>
       <c r="T43" t="n">
-        <v>33.50668919077523</v>
+        <v>33.50668919077528</v>
       </c>
       <c r="U43" t="n">
-        <v>92.22729207405519</v>
+        <v>92.22729207405524</v>
       </c>
       <c r="V43" t="n">
-        <v>59.12431410963345</v>
+        <v>59.1243141096335</v>
       </c>
       <c r="W43" t="n">
-        <v>92.28053993010982</v>
+        <v>92.28053993010988</v>
       </c>
       <c r="X43" t="n">
-        <v>32.56305798531665</v>
+        <v>32.3283229750036</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.93663691046251</v>
+        <v>24.93663691046257</v>
       </c>
     </row>
     <row r="44">
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>189.9043730340893</v>
+        <v>189.9043730340894</v>
       </c>
       <c r="C44" t="n">
-        <v>173.1730587216369</v>
+        <v>173.173058721637</v>
       </c>
       <c r="D44" t="n">
         <v>162.7926957972927</v>
       </c>
       <c r="E44" t="n">
-        <v>189.3059987979817</v>
+        <v>189.3059987979818</v>
       </c>
       <c r="F44" t="n">
-        <v>213.4818265232351</v>
+        <v>213.4818265232352</v>
       </c>
       <c r="G44" t="n">
         <v>220.5138018522857</v>
@@ -4028,13 +4028,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>26.83770407283106</v>
+        <v>26.83770407283112</v>
       </c>
       <c r="U44" t="n">
-        <v>57.62341249169955</v>
+        <v>57.62341249169961</v>
       </c>
       <c r="V44" t="n">
-        <v>134.7211845652136</v>
+        <v>134.7211845652137</v>
       </c>
       <c r="W44" t="n">
         <v>156.7180800432489</v>
@@ -4043,7 +4043,7 @@
         <v>177.0495621738637</v>
       </c>
       <c r="Y44" t="n">
-        <v>192.8750347939301</v>
+        <v>192.8750347939302</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4056,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>146.1124235746456</v>
@@ -4068,13 +4068,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.7402095277565</v>
       </c>
       <c r="H45" t="n">
-        <v>107.7293247704514</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>76.75987979576297</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,19 +4101,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.12411314855666</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>163.7050004481646</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>3.429803624534651</v>
+        <v>172.4778878931202</v>
       </c>
       <c r="U45" t="n">
-        <v>126.8949872649014</v>
+        <v>224.6385586015903</v>
       </c>
       <c r="V45" t="n">
-        <v>38.09669408234942</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
         <v>249.98934675</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>24.64534058921923</v>
+        <v>24.64534058921895</v>
       </c>
       <c r="T46" t="n">
-        <v>33.50668919077523</v>
+        <v>33.50668919077528</v>
       </c>
       <c r="U46" t="n">
-        <v>92.22729207405519</v>
+        <v>92.22729207405524</v>
       </c>
       <c r="V46" t="n">
-        <v>59.12431410963345</v>
+        <v>59.1243141096335</v>
       </c>
       <c r="W46" t="n">
-        <v>92.28053993010982</v>
+        <v>92.28053993010988</v>
       </c>
       <c r="X46" t="n">
-        <v>32.32832297500354</v>
+        <v>32.3283229750036</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.93663691046251</v>
+        <v>24.93663691046257</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>220.4794741940483</v>
+        <v>253.0100423536146</v>
       </c>
       <c r="C11" t="n">
-        <v>220.4794741940483</v>
+        <v>253.0100423536146</v>
       </c>
       <c r="D11" t="n">
-        <v>220.4794741940483</v>
+        <v>253.0100423536146</v>
       </c>
       <c r="E11" t="n">
-        <v>131.3237965121319</v>
+        <v>253.0100423536146</v>
       </c>
       <c r="F11" t="n">
-        <v>131.3237965121319</v>
+        <v>253.0100423536146</v>
       </c>
       <c r="G11" t="n">
-        <v>131.3237965121319</v>
+        <v>131.3237965121301</v>
       </c>
       <c r="H11" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="I11" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="J11" t="n">
-        <v>53.42792999998866</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="K11" t="n">
-        <v>172.6926195492293</v>
+        <v>128.9022402198845</v>
       </c>
       <c r="L11" t="n">
-        <v>291.95730909847</v>
+        <v>128.9022402198845</v>
       </c>
       <c r="M11" t="n">
-        <v>411.2219986477106</v>
+        <v>128.9022402198845</v>
       </c>
       <c r="N11" t="n">
-        <v>481.8775335322854</v>
+        <v>182.782266665527</v>
       </c>
       <c r="O11" t="n">
-        <v>481.8775335322854</v>
+        <v>302.0469562147659</v>
       </c>
       <c r="P11" t="n">
-        <v>481.8775335322854</v>
+        <v>421.3116457640049</v>
       </c>
       <c r="Q11" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="R11" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="S11" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="T11" t="n">
-        <v>463.8519658770207</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="U11" t="n">
-        <v>463.8519658770207</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="V11" t="n">
-        <v>342.1657200355345</v>
+        <v>374.6962881950991</v>
       </c>
       <c r="W11" t="n">
-        <v>342.1657200355345</v>
+        <v>374.6962881950991</v>
       </c>
       <c r="X11" t="n">
-        <v>342.1657200355345</v>
+        <v>374.6962881950991</v>
       </c>
       <c r="Y11" t="n">
-        <v>220.4794741940483</v>
+        <v>374.6962881950991</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>195.9902825557108</v>
+        <v>87.17278278757786</v>
       </c>
       <c r="C12" t="n">
-        <v>195.9902825557108</v>
+        <v>87.17278278757786</v>
       </c>
       <c r="D12" t="n">
-        <v>195.9902825557108</v>
+        <v>87.17278278757786</v>
       </c>
       <c r="E12" t="n">
-        <v>195.9902825557108</v>
+        <v>87.17278278757786</v>
       </c>
       <c r="F12" t="n">
-        <v>195.9902825557108</v>
+        <v>87.17278278757786</v>
       </c>
       <c r="G12" t="n">
-        <v>195.9902825557108</v>
+        <v>87.17278278757786</v>
       </c>
       <c r="H12" t="n">
-        <v>87.172782787578</v>
+        <v>87.17278278757786</v>
       </c>
       <c r="I12" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="J12" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="K12" t="n">
-        <v>128.9022402198864</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="L12" t="n">
-        <v>128.9022402198864</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="M12" t="n">
-        <v>128.9022402198864</v>
+        <v>124.0834648845618</v>
       </c>
       <c r="N12" t="n">
-        <v>248.166929769127</v>
+        <v>243.3481544338007</v>
       </c>
       <c r="O12" t="n">
-        <v>364.9358251887556</v>
+        <v>362.6128439830397</v>
       </c>
       <c r="P12" t="n">
-        <v>364.9358251887556</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="Q12" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="R12" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="S12" t="n">
-        <v>481.8775335322854</v>
+        <v>360.1912876907941</v>
       </c>
       <c r="T12" t="n">
-        <v>481.8775335322854</v>
+        <v>238.5050418493096</v>
       </c>
       <c r="U12" t="n">
-        <v>396.4102862192772</v>
+        <v>216.4503655360116</v>
       </c>
       <c r="V12" t="n">
-        <v>367.0120013826808</v>
+        <v>137.3837329116068</v>
       </c>
       <c r="W12" t="n">
-        <v>319.3504683538168</v>
+        <v>89.72219988274337</v>
       </c>
       <c r="X12" t="n">
-        <v>317.676528397197</v>
+        <v>88.04825992612413</v>
       </c>
       <c r="Y12" t="n">
-        <v>195.9902825557108</v>
+        <v>87.17278278757786</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="C13" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="D13" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="E13" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="F13" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="G13" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="H13" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="I13" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="J13" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="K13" t="n">
-        <v>22.30033025638132</v>
+        <v>22.30033025638118</v>
       </c>
       <c r="L13" t="n">
-        <v>94.30794362013592</v>
+        <v>94.30794362013579</v>
       </c>
       <c r="M13" t="n">
-        <v>180.8227753221923</v>
+        <v>180.8227753221921</v>
       </c>
       <c r="N13" t="n">
-        <v>270.4217395913711</v>
+        <v>270.421739591371</v>
       </c>
       <c r="O13" t="n">
-        <v>337.8442885511333</v>
+        <v>337.8442885511332</v>
       </c>
       <c r="P13" t="n">
-        <v>372.31344539717</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="Q13" t="n">
-        <v>372.31344539717</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="R13" t="n">
-        <v>372.31344539717</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="S13" t="n">
-        <v>356.7394923822334</v>
+        <v>356.7394923822339</v>
       </c>
       <c r="T13" t="n">
-        <v>331.9775761229847</v>
+        <v>268.1578996895011</v>
       </c>
       <c r="U13" t="n">
-        <v>247.9019195775945</v>
+        <v>184.0822431441115</v>
       </c>
       <c r="V13" t="n">
-        <v>197.2636145114183</v>
+        <v>133.4439380779358</v>
       </c>
       <c r="W13" t="n">
-        <v>75.57736866993204</v>
+        <v>49.31449581935975</v>
       </c>
       <c r="X13" t="n">
-        <v>25.74284846493214</v>
+        <v>25.74284846493143</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>360.1912876907992</v>
+        <v>253.0100423536146</v>
       </c>
       <c r="C14" t="n">
-        <v>360.1912876907992</v>
+        <v>253.0100423536146</v>
       </c>
       <c r="D14" t="n">
-        <v>238.5050418493129</v>
+        <v>131.3237965121301</v>
       </c>
       <c r="E14" t="n">
-        <v>238.5050418493129</v>
+        <v>131.3237965121301</v>
       </c>
       <c r="F14" t="n">
-        <v>238.5050418493129</v>
+        <v>131.3237965121301</v>
       </c>
       <c r="G14" t="n">
-        <v>131.3237965121319</v>
+        <v>131.3237965121301</v>
       </c>
       <c r="H14" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="I14" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="J14" t="n">
-        <v>53.42792999998866</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="K14" t="n">
-        <v>172.6926195492293</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="L14" t="n">
-        <v>291.95730909847</v>
+        <v>128.9022402198845</v>
       </c>
       <c r="M14" t="n">
-        <v>291.95730909847</v>
+        <v>243.3481544338007</v>
       </c>
       <c r="N14" t="n">
-        <v>411.2219986477106</v>
+        <v>362.6128439830397</v>
       </c>
       <c r="O14" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="P14" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="Q14" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="R14" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="S14" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="T14" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="U14" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="V14" t="n">
-        <v>481.8775335322854</v>
+        <v>360.1912876907941</v>
       </c>
       <c r="W14" t="n">
-        <v>360.1912876907992</v>
+        <v>360.1912876907941</v>
       </c>
       <c r="X14" t="n">
-        <v>360.1912876907992</v>
+        <v>360.1912876907941</v>
       </c>
       <c r="Y14" t="n">
-        <v>360.1912876907992</v>
+        <v>253.0100423536146</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>195.9902825557108</v>
+        <v>131.3237965121301</v>
       </c>
       <c r="C15" t="n">
-        <v>195.9902825557108</v>
+        <v>131.3237965121301</v>
       </c>
       <c r="D15" t="n">
-        <v>195.9902825557108</v>
+        <v>131.3237965121301</v>
       </c>
       <c r="E15" t="n">
-        <v>195.9902825557108</v>
+        <v>131.3237965121301</v>
       </c>
       <c r="F15" t="n">
-        <v>195.9902825557108</v>
+        <v>131.3237965121301</v>
       </c>
       <c r="G15" t="n">
-        <v>195.9902825557108</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="H15" t="n">
-        <v>87.172782787578</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="I15" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="J15" t="n">
-        <v>43.50084578695264</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="K15" t="n">
-        <v>43.50084578695264</v>
+        <v>124.0834648845618</v>
       </c>
       <c r="L15" t="n">
-        <v>43.50084578695264</v>
+        <v>124.0834648845618</v>
       </c>
       <c r="M15" t="n">
-        <v>43.50084578695264</v>
+        <v>243.3481544338007</v>
       </c>
       <c r="N15" t="n">
-        <v>126.4064460902744</v>
+        <v>362.6128439830397</v>
       </c>
       <c r="O15" t="n">
-        <v>245.671135639515</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="P15" t="n">
-        <v>364.9358251887556</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="Q15" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="R15" t="n">
-        <v>403.9743889377838</v>
+        <v>403.974388937777</v>
       </c>
       <c r="S15" t="n">
-        <v>297.6541938296365</v>
+        <v>403.974388937777</v>
       </c>
       <c r="T15" t="n">
-        <v>297.6541938296365</v>
+        <v>403.974388937777</v>
       </c>
       <c r="U15" t="n">
-        <v>275.5995175163379</v>
+        <v>381.9197126244788</v>
       </c>
       <c r="V15" t="n">
-        <v>246.2012326797415</v>
+        <v>352.5214277878829</v>
       </c>
       <c r="W15" t="n">
-        <v>198.5396996508774</v>
+        <v>253.8855194921609</v>
       </c>
       <c r="X15" t="n">
-        <v>196.8657596942576</v>
+        <v>132.1992736506764</v>
       </c>
       <c r="Y15" t="n">
-        <v>195.9902825557108</v>
+        <v>131.3237965121301</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12.95868585365327</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="C16" t="n">
-        <v>12.95868585365327</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="D16" t="n">
-        <v>12.95868585365327</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="E16" t="n">
-        <v>12.95868585365327</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="F16" t="n">
-        <v>12.95868585365327</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="G16" t="n">
-        <v>12.95868585365327</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="H16" t="n">
-        <v>12.95868585365327</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="I16" t="n">
-        <v>12.95868585365327</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="J16" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="K16" t="n">
-        <v>22.30033025638132</v>
+        <v>22.30033025638118</v>
       </c>
       <c r="L16" t="n">
-        <v>94.30794362013592</v>
+        <v>94.30794362013579</v>
       </c>
       <c r="M16" t="n">
-        <v>180.8227753221923</v>
+        <v>180.8227753221921</v>
       </c>
       <c r="N16" t="n">
-        <v>270.4217395913711</v>
+        <v>270.421739591371</v>
       </c>
       <c r="O16" t="n">
-        <v>337.8442885511333</v>
+        <v>337.8442885511332</v>
       </c>
       <c r="P16" t="n">
-        <v>372.31344539717</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="Q16" t="n">
-        <v>311.814904146697</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="R16" t="n">
-        <v>311.814904146697</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="S16" t="n">
-        <v>296.2409511317604</v>
+        <v>356.7394923822338</v>
       </c>
       <c r="T16" t="n">
-        <v>271.4790348725116</v>
+        <v>331.9775761229856</v>
       </c>
       <c r="U16" t="n">
-        <v>187.4033783271215</v>
+        <v>247.9019195775959</v>
       </c>
       <c r="V16" t="n">
-        <v>136.7650732609453</v>
+        <v>197.2636145114202</v>
       </c>
       <c r="W16" t="n">
-        <v>52.6356310023686</v>
+        <v>113.1341722528441</v>
       </c>
       <c r="X16" t="n">
-        <v>29.0639836479397</v>
+        <v>89.56252489841569</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.95868585365327</v>
+        <v>73.45722710412977</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>302.4206529421048</v>
+        <v>302.4206529421004</v>
       </c>
       <c r="C17" t="n">
-        <v>263.5803760164244</v>
+        <v>263.5803760164206</v>
       </c>
       <c r="D17" t="n">
-        <v>235.2253141658392</v>
+        <v>235.225314165836</v>
       </c>
       <c r="E17" t="n">
-        <v>180.0891381731437</v>
+        <v>180.0891381731412</v>
       </c>
       <c r="F17" t="n">
-        <v>100.5329341751419</v>
+        <v>100.53293417514</v>
       </c>
       <c r="G17" t="n">
-        <v>13.87372479426071</v>
+        <v>13.87372479425978</v>
       </c>
       <c r="H17" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="I17" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="J17" t="n">
-        <v>53.42792999998866</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="K17" t="n">
-        <v>172.6926195492293</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="L17" t="n">
-        <v>291.95730909847</v>
+        <v>128.9022402198845</v>
       </c>
       <c r="M17" t="n">
-        <v>411.2219986477106</v>
+        <v>182.782266665527</v>
       </c>
       <c r="N17" t="n">
-        <v>481.8775335322854</v>
+        <v>302.0469562147659</v>
       </c>
       <c r="O17" t="n">
-        <v>481.8775335322854</v>
+        <v>421.3116457640049</v>
       </c>
       <c r="P17" t="n">
-        <v>481.8775335322854</v>
+        <v>421.3116457640049</v>
       </c>
       <c r="Q17" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="R17" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="S17" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="T17" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="U17" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="V17" t="n">
-        <v>481.8775335322852</v>
+        <v>481.8775335322789</v>
       </c>
       <c r="W17" t="n">
-        <v>459.6584471908352</v>
+        <v>459.6584471908291</v>
       </c>
       <c r="X17" t="n">
-        <v>416.9025102124005</v>
+        <v>416.902510212395</v>
       </c>
       <c r="Y17" t="n">
-        <v>358.1612473551108</v>
+        <v>358.1612473551059</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>160.6018972548113</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="C18" t="n">
-        <v>160.6018972548113</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="D18" t="n">
-        <v>160.6018972548113</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="E18" t="n">
-        <v>160.6018972548113</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="F18" t="n">
-        <v>160.6018972548113</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="G18" t="n">
-        <v>87.172782787578</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="H18" t="n">
-        <v>87.172782787578</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="I18" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="J18" t="n">
-        <v>43.50084578695264</v>
+        <v>43.5008457869525</v>
       </c>
       <c r="K18" t="n">
-        <v>43.50084578695264</v>
+        <v>162.7655353361914</v>
       </c>
       <c r="L18" t="n">
-        <v>43.50084578695264</v>
+        <v>282.0302248854304</v>
       </c>
       <c r="M18" t="n">
-        <v>43.50084578695264</v>
+        <v>364.9358251887488</v>
       </c>
       <c r="N18" t="n">
-        <v>162.7655353361933</v>
+        <v>364.9358251887488</v>
       </c>
       <c r="O18" t="n">
-        <v>282.0302248854339</v>
+        <v>364.9358251887488</v>
       </c>
       <c r="P18" t="n">
-        <v>364.9358251887556</v>
+        <v>364.9358251887488</v>
       </c>
       <c r="Q18" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="R18" t="n">
-        <v>403.9743889377838</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="S18" t="n">
-        <v>282.2881430962975</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="T18" t="n">
-        <v>160.6018972548113</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="U18" t="n">
-        <v>160.6018972548113</v>
+        <v>360.1912876907941</v>
       </c>
       <c r="V18" t="n">
-        <v>160.6018972548113</v>
+        <v>238.5050418493096</v>
       </c>
       <c r="W18" t="n">
-        <v>160.6018972548113</v>
+        <v>131.3237965121301</v>
       </c>
       <c r="X18" t="n">
-        <v>160.6018972548113</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="Y18" t="n">
-        <v>160.6018972548113</v>
+        <v>9.637550670645572</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.43016264942599</v>
+        <v>190.1286583052124</v>
       </c>
       <c r="C19" t="n">
-        <v>82.43016264942599</v>
+        <v>82.43016264942585</v>
       </c>
       <c r="D19" t="n">
-        <v>82.43016264942599</v>
+        <v>82.43016264942585</v>
       </c>
       <c r="E19" t="n">
-        <v>82.43016264942599</v>
+        <v>82.43016264942585</v>
       </c>
       <c r="F19" t="n">
-        <v>82.43016264942599</v>
+        <v>82.43016264942585</v>
       </c>
       <c r="G19" t="n">
-        <v>82.43016264942599</v>
+        <v>82.43016264942585</v>
       </c>
       <c r="H19" t="n">
-        <v>82.43016264942599</v>
+        <v>82.43016264942585</v>
       </c>
       <c r="I19" t="n">
-        <v>82.43016264942599</v>
+        <v>82.43016264942585</v>
       </c>
       <c r="J19" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="K19" t="n">
-        <v>22.30033025638132</v>
+        <v>22.30033025638118</v>
       </c>
       <c r="L19" t="n">
-        <v>94.30794362013592</v>
+        <v>94.30794362013579</v>
       </c>
       <c r="M19" t="n">
-        <v>180.8227753221923</v>
+        <v>180.8227753221921</v>
       </c>
       <c r="N19" t="n">
-        <v>270.4217395913711</v>
+        <v>270.421739591371</v>
       </c>
       <c r="O19" t="n">
-        <v>337.8442885511333</v>
+        <v>337.8442885511332</v>
       </c>
       <c r="P19" t="n">
-        <v>372.31344539717</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="Q19" t="n">
-        <v>311.814904146697</v>
+        <v>311.8149041466968</v>
       </c>
       <c r="R19" t="n">
-        <v>204.1164084909122</v>
+        <v>311.8149041466968</v>
       </c>
       <c r="S19" t="n">
-        <v>204.1164084909122</v>
+        <v>311.8149041466968</v>
       </c>
       <c r="T19" t="n">
-        <v>204.1164084909122</v>
+        <v>311.8149041466968</v>
       </c>
       <c r="U19" t="n">
-        <v>204.1164084909122</v>
+        <v>311.8149041466968</v>
       </c>
       <c r="V19" t="n">
-        <v>82.43016264942599</v>
+        <v>311.8149041466968</v>
       </c>
       <c r="W19" t="n">
-        <v>82.43016264942599</v>
+        <v>311.8149041466968</v>
       </c>
       <c r="X19" t="n">
-        <v>82.43016264942599</v>
+        <v>311.8149041466968</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.43016264942599</v>
+        <v>190.1286583052124</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>302.4206529421047</v>
+        <v>302.4206529421012</v>
       </c>
       <c r="C20" t="n">
-        <v>263.5803760164242</v>
+        <v>263.5803760164214</v>
       </c>
       <c r="D20" t="n">
-        <v>235.225314165839</v>
+        <v>235.2253141658368</v>
       </c>
       <c r="E20" t="n">
-        <v>180.0891381731435</v>
+        <v>180.089138173142</v>
       </c>
       <c r="F20" t="n">
-        <v>100.5329341751417</v>
+        <v>100.5329341751407</v>
       </c>
       <c r="G20" t="n">
-        <v>13.87372479426053</v>
+        <v>13.87372479425976</v>
       </c>
       <c r="H20" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="I20" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="J20" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="K20" t="n">
-        <v>128.9022402198864</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="L20" t="n">
-        <v>128.9022402198864</v>
+        <v>128.9022402198845</v>
       </c>
       <c r="M20" t="n">
-        <v>128.9022402198864</v>
+        <v>248.1669297691235</v>
       </c>
       <c r="N20" t="n">
-        <v>182.7822666655304</v>
+        <v>367.4316193183624</v>
       </c>
       <c r="O20" t="n">
-        <v>302.0469562147711</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="P20" t="n">
-        <v>421.3116457640117</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="Q20" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="R20" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="S20" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="T20" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="U20" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="V20" t="n">
-        <v>481.8775335322853</v>
+        <v>481.877533532279</v>
       </c>
       <c r="W20" t="n">
-        <v>459.6584471908353</v>
+        <v>459.6584471908296</v>
       </c>
       <c r="X20" t="n">
-        <v>416.9025102124006</v>
+        <v>416.9025102123955</v>
       </c>
       <c r="Y20" t="n">
-        <v>358.1612473551108</v>
+        <v>358.1612473551065</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>253.0100423536182</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="C21" t="n">
-        <v>253.0100423536182</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="D21" t="n">
-        <v>131.3237965121319</v>
+        <v>361.8275421217473</v>
       </c>
       <c r="E21" t="n">
-        <v>9.637550670645709</v>
+        <v>240.1412962802628</v>
       </c>
       <c r="F21" t="n">
-        <v>9.637550670645709</v>
+        <v>118.4550504387783</v>
       </c>
       <c r="G21" t="n">
-        <v>9.637550670645709</v>
+        <v>118.4550504387783</v>
       </c>
       <c r="H21" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="I21" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="J21" t="n">
-        <v>43.50084578695264</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="K21" t="n">
-        <v>162.7655353361933</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="L21" t="n">
-        <v>282.0302248854339</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="M21" t="n">
-        <v>401.2949144346746</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="N21" t="n">
-        <v>401.2949144346746</v>
+        <v>128.9022402198845</v>
       </c>
       <c r="O21" t="n">
-        <v>481.8775335322854</v>
+        <v>248.1669297691235</v>
       </c>
       <c r="P21" t="n">
-        <v>481.8775335322854</v>
+        <v>364.9358251887488</v>
       </c>
       <c r="Q21" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="R21" t="n">
-        <v>403.9743889377838</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="S21" t="n">
-        <v>403.9743889377838</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="T21" t="n">
-        <v>403.9743889377838</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="U21" t="n">
-        <v>403.9743889377838</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="V21" t="n">
-        <v>403.9743889377838</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="W21" t="n">
-        <v>374.6962881951044</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="X21" t="n">
-        <v>374.6962881951044</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="Y21" t="n">
-        <v>253.0100423536182</v>
+        <v>481.8775335322786</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>204.1164084909122</v>
+        <v>204.1164084909104</v>
       </c>
       <c r="C22" t="n">
-        <v>204.1164084909122</v>
+        <v>204.1164084909104</v>
       </c>
       <c r="D22" t="n">
-        <v>82.43016264942599</v>
+        <v>204.1164084909104</v>
       </c>
       <c r="E22" t="n">
-        <v>82.43016264942599</v>
+        <v>204.1164084909104</v>
       </c>
       <c r="F22" t="n">
-        <v>82.43016264942599</v>
+        <v>204.1164084909104</v>
       </c>
       <c r="G22" t="n">
-        <v>82.43016264942599</v>
+        <v>82.43016264942585</v>
       </c>
       <c r="H22" t="n">
-        <v>82.43016264942599</v>
+        <v>82.43016264942585</v>
       </c>
       <c r="I22" t="n">
-        <v>82.43016264942599</v>
+        <v>82.43016264942585</v>
       </c>
       <c r="J22" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="K22" t="n">
-        <v>22.30033025638132</v>
+        <v>22.30033025638118</v>
       </c>
       <c r="L22" t="n">
-        <v>94.30794362013592</v>
+        <v>94.30794362013579</v>
       </c>
       <c r="M22" t="n">
-        <v>180.8227753221923</v>
+        <v>180.8227753221921</v>
       </c>
       <c r="N22" t="n">
-        <v>270.4217395913711</v>
+        <v>270.421739591371</v>
       </c>
       <c r="O22" t="n">
-        <v>337.8442885511333</v>
+        <v>337.8442885511332</v>
       </c>
       <c r="P22" t="n">
-        <v>372.31344539717</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="Q22" t="n">
-        <v>311.814904146697</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="R22" t="n">
-        <v>311.814904146697</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="S22" t="n">
-        <v>311.814904146697</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="T22" t="n">
-        <v>311.814904146697</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="U22" t="n">
-        <v>311.814904146697</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="V22" t="n">
-        <v>311.814904146697</v>
+        <v>325.8026543323949</v>
       </c>
       <c r="W22" t="n">
-        <v>311.814904146697</v>
+        <v>325.8026543323949</v>
       </c>
       <c r="X22" t="n">
-        <v>311.814904146697</v>
+        <v>325.8026543323949</v>
       </c>
       <c r="Y22" t="n">
-        <v>311.814904146697</v>
+        <v>204.1164084909104</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>302.4206529421052</v>
+        <v>302.4206529421006</v>
       </c>
       <c r="C23" t="n">
-        <v>263.5803760164246</v>
+        <v>263.5803760164208</v>
       </c>
       <c r="D23" t="n">
-        <v>235.2253141658395</v>
+        <v>235.2253141658362</v>
       </c>
       <c r="E23" t="n">
-        <v>180.0891381731441</v>
+        <v>180.0891381731414</v>
       </c>
       <c r="F23" t="n">
-        <v>100.5329341751423</v>
+        <v>100.5329341751401</v>
       </c>
       <c r="G23" t="n">
-        <v>13.87372479426053</v>
+        <v>13.87372479425976</v>
       </c>
       <c r="H23" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="I23" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="J23" t="n">
-        <v>53.42792999998866</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="K23" t="n">
-        <v>172.6926195492293</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="L23" t="n">
-        <v>291.95730909847</v>
+        <v>128.9022402198845</v>
       </c>
       <c r="M23" t="n">
-        <v>411.2219986477106</v>
+        <v>248.1669297691235</v>
       </c>
       <c r="N23" t="n">
-        <v>481.8775335322854</v>
+        <v>367.4316193183624</v>
       </c>
       <c r="O23" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="P23" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="Q23" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="R23" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="S23" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="T23" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="U23" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="V23" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="W23" t="n">
-        <v>459.6584471908356</v>
+        <v>459.6584471908292</v>
       </c>
       <c r="X23" t="n">
-        <v>416.902510212401</v>
+        <v>416.9025102123951</v>
       </c>
       <c r="Y23" t="n">
-        <v>358.1612473551112</v>
+        <v>358.161247355106</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9.637550670645709</v>
+        <v>131.3237965121301</v>
       </c>
       <c r="C24" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="D24" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="E24" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="F24" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="G24" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="H24" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="I24" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="J24" t="n">
-        <v>43.50084578695264</v>
+        <v>43.5008457869525</v>
       </c>
       <c r="K24" t="n">
-        <v>162.7655353361933</v>
+        <v>162.7655353361914</v>
       </c>
       <c r="L24" t="n">
-        <v>282.0302248854339</v>
+        <v>282.0302248854304</v>
       </c>
       <c r="M24" t="n">
-        <v>401.2949144346746</v>
+        <v>401.2949144346694</v>
       </c>
       <c r="N24" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="O24" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="P24" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="Q24" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="R24" t="n">
-        <v>481.8775335322854</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="S24" t="n">
-        <v>374.6962881951044</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="T24" t="n">
-        <v>253.0100423536182</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="U24" t="n">
-        <v>131.3237965121319</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="V24" t="n">
-        <v>9.637550670645709</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="W24" t="n">
-        <v>9.637550670645709</v>
+        <v>481.8775335322786</v>
       </c>
       <c r="X24" t="n">
-        <v>9.637550670645709</v>
+        <v>360.1912876907941</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.637550670645709</v>
+        <v>253.0100423536146</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>204.1164084909122</v>
+        <v>253.0100423536146</v>
       </c>
       <c r="C25" t="n">
-        <v>204.1164084909122</v>
+        <v>131.3237965121301</v>
       </c>
       <c r="D25" t="n">
-        <v>204.1164084909122</v>
+        <v>131.3237965121301</v>
       </c>
       <c r="E25" t="n">
-        <v>204.1164084909122</v>
+        <v>131.3237965121301</v>
       </c>
       <c r="F25" t="n">
-        <v>204.1164084909122</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="G25" t="n">
-        <v>204.1164084909122</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="H25" t="n">
-        <v>204.1164084909122</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="I25" t="n">
-        <v>82.43016264942599</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="J25" t="n">
-        <v>9.637550670645709</v>
+        <v>9.637550670645572</v>
       </c>
       <c r="K25" t="n">
-        <v>22.30033025638132</v>
+        <v>22.30033025638118</v>
       </c>
       <c r="L25" t="n">
-        <v>94.30794362013592</v>
+        <v>94.30794362013579</v>
       </c>
       <c r="M25" t="n">
-        <v>180.8227753221923</v>
+        <v>180.8227753221921</v>
       </c>
       <c r="N25" t="n">
-        <v>270.4217395913711</v>
+        <v>270.421739591371</v>
       </c>
       <c r="O25" t="n">
-        <v>337.8442885511333</v>
+        <v>337.8442885511332</v>
       </c>
       <c r="P25" t="n">
-        <v>372.31344539717</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="Q25" t="n">
-        <v>311.814904146697</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="R25" t="n">
-        <v>311.814904146697</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="S25" t="n">
-        <v>311.814904146697</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="T25" t="n">
-        <v>311.814904146697</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="U25" t="n">
-        <v>311.814904146697</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="V25" t="n">
-        <v>311.814904146697</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="W25" t="n">
-        <v>204.1164084909122</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="X25" t="n">
-        <v>204.1164084909122</v>
+        <v>253.0100423536146</v>
       </c>
       <c r="Y25" t="n">
-        <v>204.1164084909122</v>
+        <v>253.0100423536146</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1376.381754553607</v>
+        <v>1376.381754553604</v>
       </c>
       <c r="C26" t="n">
-        <v>1169.372149471372</v>
+        <v>1169.37214947137</v>
       </c>
       <c r="D26" t="n">
-        <v>972.8477594642336</v>
+        <v>972.8477594642316</v>
       </c>
       <c r="E26" t="n">
-        <v>749.5422553149842</v>
+        <v>749.5422553149824</v>
       </c>
       <c r="F26" t="n">
-        <v>501.8167231604282</v>
+        <v>501.8167231604272</v>
       </c>
       <c r="G26" t="n">
-        <v>246.9881856229933</v>
+        <v>246.9881856229927</v>
       </c>
       <c r="H26" t="n">
-        <v>74.58268334282457</v>
+        <v>74.58268334282403</v>
       </c>
       <c r="I26" t="n">
-        <v>51.5652301143666</v>
+        <v>51.56523011436646</v>
       </c>
       <c r="J26" t="n">
-        <v>255.780740224765</v>
+        <v>253.7864863057563</v>
       </c>
       <c r="K26" t="n">
-        <v>604.112890867302</v>
+        <v>441.6935061672379</v>
       </c>
       <c r="L26" t="n">
-        <v>1049.622373784973</v>
+        <v>726.777858303853</v>
       </c>
       <c r="M26" t="n">
-        <v>1542.471070049979</v>
+        <v>1059.201423787804</v>
       </c>
       <c r="N26" t="n">
-        <v>2025.181552150385</v>
+        <v>1541.91190588821</v>
       </c>
       <c r="O26" t="n">
-        <v>2283.378119101849</v>
+        <v>1960.53360362073</v>
       </c>
       <c r="P26" t="n">
-        <v>2466.804122238223</v>
+        <v>2304.384737538161</v>
       </c>
       <c r="Q26" t="n">
-        <v>2527.370010006497</v>
+        <v>2525.37575608749</v>
       </c>
       <c r="R26" t="n">
-        <v>2578.26150571833</v>
+        <v>2578.261505718323</v>
       </c>
       <c r="S26" t="n">
-        <v>2546.174182173102</v>
+        <v>2546.174182173096</v>
       </c>
       <c r="T26" t="n">
-        <v>2486.978066635116</v>
+        <v>2486.978066635111</v>
       </c>
       <c r="U26" t="n">
-        <v>2396.685275926556</v>
+        <v>2396.685275926551</v>
       </c>
       <c r="V26" t="n">
-        <v>2228.515947770003</v>
+        <v>2228.515947769998</v>
       </c>
       <c r="W26" t="n">
-        <v>2038.127533271999</v>
+        <v>2038.127533271995</v>
       </c>
       <c r="X26" t="n">
-        <v>1827.20226813701</v>
+        <v>1827.202268137007</v>
       </c>
       <c r="Y26" t="n">
-        <v>1600.291677123167</v>
+        <v>1600.291677123163</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>805.0797714473742</v>
+        <v>805.0797714473752</v>
       </c>
       <c r="C27" t="n">
-        <v>632.3266563691914</v>
+        <v>632.3266563691923</v>
       </c>
       <c r="D27" t="n">
-        <v>484.7383497281352</v>
+        <v>484.7383497281361</v>
       </c>
       <c r="E27" t="n">
-        <v>327.1288207309899</v>
+        <v>327.1288207309908</v>
       </c>
       <c r="F27" t="n">
-        <v>182.1730307476068</v>
+        <v>182.1730307476077</v>
       </c>
       <c r="G27" t="n">
-        <v>51.5652301143666</v>
+        <v>182.1730307476077</v>
       </c>
       <c r="H27" t="n">
-        <v>51.5652301143666</v>
+        <v>73.35553097947491</v>
       </c>
       <c r="I27" t="n">
-        <v>51.5652301143666</v>
+        <v>51.56523011436646</v>
       </c>
       <c r="J27" t="n">
-        <v>85.42852523067353</v>
+        <v>85.42852523067339</v>
       </c>
       <c r="K27" t="n">
-        <v>269.911903483014</v>
+        <v>269.9119034830139</v>
       </c>
       <c r="L27" t="n">
-        <v>578.8221791694211</v>
+        <v>578.822179169421</v>
       </c>
       <c r="M27" t="n">
-        <v>992.1060946137763</v>
+        <v>992.1060946137762</v>
       </c>
       <c r="N27" t="n">
         <v>1431.727137538704</v>
@@ -6330,25 +6330,25 @@
         <v>2135.278974238888</v>
       </c>
       <c r="S27" t="n">
-        <v>1969.92038792761</v>
+        <v>2133.602798682693</v>
       </c>
       <c r="T27" t="n">
         <v>1934.368616276793</v>
       </c>
       <c r="U27" t="n">
-        <v>1871.143392080773</v>
+        <v>1871.143392080774</v>
       </c>
       <c r="V27" t="n">
-        <v>1636.892148606374</v>
+        <v>1636.892148606375</v>
       </c>
       <c r="W27" t="n">
-        <v>1384.377656939707</v>
+        <v>1384.377656939708</v>
       </c>
       <c r="X27" t="n">
-        <v>1177.850758345284</v>
+        <v>1177.850758345285</v>
       </c>
       <c r="Y27" t="n">
-        <v>972.1223225689347</v>
+        <v>972.1223225689356</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>62.57301830125683</v>
+        <v>62.57301830125588</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22860791370979</v>
+        <v>57.22860791370925</v>
       </c>
       <c r="D28" t="n">
-        <v>57.22860791370979</v>
+        <v>57.22860791370925</v>
       </c>
       <c r="E28" t="n">
-        <v>57.22860791370979</v>
+        <v>57.22860791370925</v>
       </c>
       <c r="F28" t="n">
-        <v>57.22860791370979</v>
+        <v>57.22860791370925</v>
       </c>
       <c r="G28" t="n">
-        <v>51.5652301143666</v>
+        <v>51.56523011436646</v>
       </c>
       <c r="H28" t="n">
-        <v>51.5652301143666</v>
+        <v>51.56523011436646</v>
       </c>
       <c r="I28" t="n">
-        <v>51.5652301143666</v>
+        <v>66.83305251925879</v>
       </c>
       <c r="J28" t="n">
-        <v>51.5652301143666</v>
+        <v>145.4267651377848</v>
       </c>
       <c r="K28" t="n">
-        <v>64.22800970010221</v>
+        <v>158.0895447235204</v>
       </c>
       <c r="L28" t="n">
-        <v>296.6607538449123</v>
+        <v>390.5222888683309</v>
       </c>
       <c r="M28" t="n">
-        <v>383.1755855469686</v>
+        <v>477.0371205703872</v>
       </c>
       <c r="N28" t="n">
-        <v>472.7745498161474</v>
+        <v>566.636084839566</v>
       </c>
       <c r="O28" t="n">
-        <v>540.1970987759097</v>
+        <v>634.0586337993283</v>
       </c>
       <c r="P28" t="n">
-        <v>574.6662556219463</v>
+        <v>668.5277906453649</v>
       </c>
       <c r="Q28" t="n">
-        <v>668.5277906453696</v>
+        <v>668.5277906453649</v>
       </c>
       <c r="R28" t="n">
-        <v>667.8433796957249</v>
+        <v>667.8433796957207</v>
       </c>
       <c r="S28" t="n">
-        <v>611.0988787980673</v>
+        <v>611.0988787980635</v>
       </c>
       <c r="T28" t="n">
-        <v>545.1664146560975</v>
+        <v>545.166414656094</v>
       </c>
       <c r="U28" t="n">
-        <v>419.9202102279863</v>
+        <v>419.9202102279833</v>
       </c>
       <c r="V28" t="n">
-        <v>328.1113572790889</v>
+        <v>328.1113572790863</v>
       </c>
       <c r="W28" t="n">
-        <v>202.8113671377912</v>
+        <v>202.811367137789</v>
       </c>
       <c r="X28" t="n">
-        <v>138.0691719006412</v>
+        <v>138.0691719006394</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.79332622363364</v>
+        <v>80.79332622363228</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1376.381754553607</v>
+        <v>1376.381754553603</v>
       </c>
       <c r="C29" t="n">
-        <v>1169.372149471373</v>
+        <v>1169.372149471369</v>
       </c>
       <c r="D29" t="n">
-        <v>972.8477594642338</v>
+        <v>972.8477594642309</v>
       </c>
       <c r="E29" t="n">
-        <v>749.5422553149847</v>
+        <v>749.5422553149821</v>
       </c>
       <c r="F29" t="n">
-        <v>501.816723160429</v>
+        <v>501.8167231604268</v>
       </c>
       <c r="G29" t="n">
-        <v>246.988185622994</v>
+        <v>246.9881856229923</v>
       </c>
       <c r="H29" t="n">
-        <v>74.58268334282455</v>
+        <v>74.58268334282403</v>
       </c>
       <c r="I29" t="n">
-        <v>51.56523011436659</v>
+        <v>51.56523011436646</v>
       </c>
       <c r="J29" t="n">
-        <v>253.7864863057641</v>
+        <v>95.35560944370941</v>
       </c>
       <c r="K29" t="n">
-        <v>602.1186369483012</v>
+        <v>283.2626293051911</v>
       </c>
       <c r="L29" t="n">
-        <v>1047.628119865972</v>
+        <v>726.7778583038531</v>
       </c>
       <c r="M29" t="n">
-        <v>1380.051685349923</v>
+        <v>1219.62655456886</v>
       </c>
       <c r="N29" t="n">
-        <v>1862.762167450328</v>
+        <v>1702.337036669266</v>
       </c>
       <c r="O29" t="n">
-        <v>2120.958734401793</v>
+        <v>2120.958734401786</v>
       </c>
       <c r="P29" t="n">
-        <v>2304.384737538167</v>
+        <v>2304.384737538161</v>
       </c>
       <c r="Q29" t="n">
-        <v>2525.375756087496</v>
+        <v>2525.37575608749</v>
       </c>
       <c r="R29" t="n">
-        <v>2578.261505718329</v>
+        <v>2578.261505718323</v>
       </c>
       <c r="S29" t="n">
-        <v>2546.174182173102</v>
+        <v>2546.174182173097</v>
       </c>
       <c r="T29" t="n">
-        <v>2486.978066635116</v>
+        <v>2486.978066635111</v>
       </c>
       <c r="U29" t="n">
-        <v>2396.685275926557</v>
+        <v>2396.685275926551</v>
       </c>
       <c r="V29" t="n">
-        <v>2228.515947770003</v>
+        <v>2228.515947769997</v>
       </c>
       <c r="W29" t="n">
-        <v>2038.127533271999</v>
+        <v>2038.127533271994</v>
       </c>
       <c r="X29" t="n">
-        <v>1827.202268137011</v>
+        <v>1827.202268137006</v>
       </c>
       <c r="Y29" t="n">
-        <v>1600.291677123167</v>
+        <v>1600.291677123163</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>641.3973606922929</v>
+        <v>920.4007933375763</v>
       </c>
       <c r="C30" t="n">
-        <v>632.3266563691916</v>
+        <v>747.6476782593934</v>
       </c>
       <c r="D30" t="n">
-        <v>484.7383497281355</v>
+        <v>600.0593716183373</v>
       </c>
       <c r="E30" t="n">
-        <v>327.1288207309901</v>
+        <v>442.449842621192</v>
       </c>
       <c r="F30" t="n">
-        <v>182.173030747607</v>
+        <v>297.4940526378089</v>
       </c>
       <c r="G30" t="n">
-        <v>51.56523011436659</v>
+        <v>160.3827298824992</v>
       </c>
       <c r="H30" t="n">
-        <v>51.56523011436659</v>
+        <v>51.56523011436646</v>
       </c>
       <c r="I30" t="n">
-        <v>51.56523011436659</v>
+        <v>51.56523011436646</v>
       </c>
       <c r="J30" t="n">
-        <v>85.42852523067351</v>
+        <v>85.42852523067339</v>
       </c>
       <c r="K30" t="n">
-        <v>269.911903483014</v>
+        <v>269.9119034830139</v>
       </c>
       <c r="L30" t="n">
-        <v>578.8221791694211</v>
+        <v>578.822179169421</v>
       </c>
       <c r="M30" t="n">
-        <v>992.1060946137763</v>
+        <v>992.1060946137762</v>
       </c>
       <c r="N30" t="n">
         <v>1431.727137538704</v>
@@ -6567,25 +6567,25 @@
         <v>2135.278974238888</v>
       </c>
       <c r="S30" t="n">
-        <v>2133.602798682692</v>
+        <v>2133.602798682693</v>
       </c>
       <c r="T30" t="n">
-        <v>1934.368616276793</v>
+        <v>2098.051027031875</v>
       </c>
       <c r="U30" t="n">
-        <v>1707.460981325691</v>
+        <v>1871.143392080774</v>
       </c>
       <c r="V30" t="n">
-        <v>1473.209737851292</v>
+        <v>1636.892148606375</v>
       </c>
       <c r="W30" t="n">
-        <v>1220.695246184625</v>
+        <v>1384.377656939708</v>
       </c>
       <c r="X30" t="n">
-        <v>1014.168347590203</v>
+        <v>1293.171780235486</v>
       </c>
       <c r="Y30" t="n">
-        <v>808.4399118138533</v>
+        <v>1087.443344459137</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>62.57301830125682</v>
+        <v>62.57301830125588</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22860791370978</v>
+        <v>57.22860791370925</v>
       </c>
       <c r="D31" t="n">
-        <v>57.22860791370978</v>
+        <v>57.22860791370925</v>
       </c>
       <c r="E31" t="n">
-        <v>57.22860791370978</v>
+        <v>57.22860791370925</v>
       </c>
       <c r="F31" t="n">
-        <v>57.22860791370978</v>
+        <v>57.22860791370925</v>
       </c>
       <c r="G31" t="n">
-        <v>51.56523011436659</v>
+        <v>51.56523011436646</v>
       </c>
       <c r="H31" t="n">
-        <v>51.56523011436659</v>
+        <v>51.56523011436646</v>
       </c>
       <c r="I31" t="n">
-        <v>51.56523011436659</v>
+        <v>51.56523011436646</v>
       </c>
       <c r="J31" t="n">
-        <v>51.56523011436659</v>
+        <v>51.56523011436646</v>
       </c>
       <c r="K31" t="n">
-        <v>224.6531404811577</v>
+        <v>64.22800970010206</v>
       </c>
       <c r="L31" t="n">
-        <v>296.6607538449123</v>
+        <v>136.2356230638567</v>
       </c>
       <c r="M31" t="n">
-        <v>383.1755855469686</v>
+        <v>375.9066100689199</v>
       </c>
       <c r="N31" t="n">
-        <v>472.7745498161474</v>
+        <v>465.5055743380988</v>
       </c>
       <c r="O31" t="n">
-        <v>540.1970987759097</v>
+        <v>532.928123297861</v>
       </c>
       <c r="P31" t="n">
-        <v>574.6662556219463</v>
+        <v>567.3972801438977</v>
       </c>
       <c r="Q31" t="n">
-        <v>668.5277906453696</v>
+        <v>668.5277906453649</v>
       </c>
       <c r="R31" t="n">
-        <v>667.8433796957249</v>
+        <v>667.8433796957207</v>
       </c>
       <c r="S31" t="n">
-        <v>611.0988787980673</v>
+        <v>611.0988787980635</v>
       </c>
       <c r="T31" t="n">
-        <v>545.1664146560975</v>
+        <v>545.166414656094</v>
       </c>
       <c r="U31" t="n">
-        <v>419.9202102279863</v>
+        <v>419.9202102279833</v>
       </c>
       <c r="V31" t="n">
-        <v>328.1113572790889</v>
+        <v>328.1113572790863</v>
       </c>
       <c r="W31" t="n">
-        <v>202.8113671377911</v>
+        <v>202.811367137789</v>
       </c>
       <c r="X31" t="n">
-        <v>138.0691719006412</v>
+        <v>138.0691719006394</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.79332622363361</v>
+        <v>80.79332622363228</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1376.381754553606</v>
+        <v>1376.381754553603</v>
       </c>
       <c r="C32" t="n">
-        <v>1169.372149471372</v>
+        <v>1169.372149471369</v>
       </c>
       <c r="D32" t="n">
-        <v>972.8477594642334</v>
+        <v>972.8477594642304</v>
       </c>
       <c r="E32" t="n">
-        <v>749.5422553149841</v>
+        <v>749.5422553149816</v>
       </c>
       <c r="F32" t="n">
-        <v>501.8167231604284</v>
+        <v>501.8167231604264</v>
       </c>
       <c r="G32" t="n">
-        <v>246.9881856229936</v>
+        <v>246.9881856229922</v>
       </c>
       <c r="H32" t="n">
-        <v>74.58268334282452</v>
+        <v>74.58268334282403</v>
       </c>
       <c r="I32" t="n">
-        <v>51.56523011436659</v>
+        <v>51.56523011436646</v>
       </c>
       <c r="J32" t="n">
-        <v>255.780740224765</v>
+        <v>253.7864863057564</v>
       </c>
       <c r="K32" t="n">
-        <v>602.1186369483012</v>
+        <v>441.693506167238</v>
       </c>
       <c r="L32" t="n">
-        <v>1047.628119865972</v>
+        <v>726.7778583038531</v>
       </c>
       <c r="M32" t="n">
-        <v>1380.051685349923</v>
+        <v>1219.62655456886</v>
       </c>
       <c r="N32" t="n">
-        <v>1862.762167450328</v>
+        <v>1541.91190588821</v>
       </c>
       <c r="O32" t="n">
-        <v>2120.958734401793</v>
+        <v>1960.53360362073</v>
       </c>
       <c r="P32" t="n">
-        <v>2464.809868319223</v>
+        <v>2304.384737538161</v>
       </c>
       <c r="Q32" t="n">
-        <v>2525.375756087496</v>
+        <v>2525.37575608749</v>
       </c>
       <c r="R32" t="n">
-        <v>2578.261505718329</v>
+        <v>2578.261505718323</v>
       </c>
       <c r="S32" t="n">
-        <v>2546.174182173103</v>
+        <v>2546.174182173096</v>
       </c>
       <c r="T32" t="n">
-        <v>2486.978066635117</v>
+        <v>2486.97806663511</v>
       </c>
       <c r="U32" t="n">
-        <v>2396.685275926556</v>
+        <v>2396.685275926551</v>
       </c>
       <c r="V32" t="n">
-        <v>2228.515947770002</v>
+        <v>2228.515947769997</v>
       </c>
       <c r="W32" t="n">
-        <v>2038.127533271998</v>
+        <v>2038.127533271994</v>
       </c>
       <c r="X32" t="n">
-        <v>1827.20226813701</v>
+        <v>1827.202268137006</v>
       </c>
       <c r="Y32" t="n">
-        <v>1600.291677123166</v>
+        <v>1600.291677123163</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>920.4007933375765</v>
+        <v>805.0797714473752</v>
       </c>
       <c r="C33" t="n">
-        <v>747.6476782593936</v>
+        <v>632.3266563691923</v>
       </c>
       <c r="D33" t="n">
-        <v>600.0593716183374</v>
+        <v>484.7383497281361</v>
       </c>
       <c r="E33" t="n">
-        <v>442.4498426211921</v>
+        <v>382.8737519828147</v>
       </c>
       <c r="F33" t="n">
-        <v>297.494052637809</v>
+        <v>237.9179619994315</v>
       </c>
       <c r="G33" t="n">
-        <v>160.3827298824993</v>
+        <v>237.9179619994315</v>
       </c>
       <c r="H33" t="n">
-        <v>51.56523011436659</v>
+        <v>129.1004622312988</v>
       </c>
       <c r="I33" t="n">
-        <v>51.56523011436659</v>
+        <v>51.56523011436646</v>
       </c>
       <c r="J33" t="n">
-        <v>85.42852523067351</v>
+        <v>85.42852523067339</v>
       </c>
       <c r="K33" t="n">
-        <v>269.911903483014</v>
+        <v>269.9119034830139</v>
       </c>
       <c r="L33" t="n">
-        <v>578.8221791694211</v>
+        <v>578.822179169421</v>
       </c>
       <c r="M33" t="n">
-        <v>992.1060946137763</v>
+        <v>992.1060946137762</v>
       </c>
       <c r="N33" t="n">
         <v>1431.727137538704</v>
@@ -6804,25 +6804,25 @@
         <v>2135.278974238888</v>
       </c>
       <c r="S33" t="n">
-        <v>2133.602798682692</v>
+        <v>2133.602798682693</v>
       </c>
       <c r="T33" t="n">
-        <v>1934.368616276793</v>
+        <v>2098.051027031875</v>
       </c>
       <c r="U33" t="n">
-        <v>1707.460981325691</v>
+        <v>1871.143392080774</v>
       </c>
       <c r="V33" t="n">
-        <v>1473.209737851292</v>
+        <v>1636.892148606375</v>
       </c>
       <c r="W33" t="n">
-        <v>1384.377656939707</v>
+        <v>1384.377656939708</v>
       </c>
       <c r="X33" t="n">
         <v>1177.850758345285</v>
       </c>
       <c r="Y33" t="n">
-        <v>972.1223225689351</v>
+        <v>972.1223225689356</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.79257505848668</v>
+        <v>56.90964050191309</v>
       </c>
       <c r="C34" t="n">
-        <v>52.44816467093967</v>
+        <v>51.56523011436646</v>
       </c>
       <c r="D34" t="n">
-        <v>57.22860791370975</v>
+        <v>64.47485004604815</v>
       </c>
       <c r="E34" t="n">
-        <v>57.22860791370975</v>
+        <v>79.39510289563682</v>
       </c>
       <c r="F34" t="n">
-        <v>57.22860791370975</v>
+        <v>95.12280248098622</v>
       </c>
       <c r="G34" t="n">
-        <v>51.56523011436659</v>
+        <v>89.45942468164343</v>
       </c>
       <c r="H34" t="n">
-        <v>51.56523011436659</v>
+        <v>89.45942468164343</v>
       </c>
       <c r="I34" t="n">
-        <v>51.56523011436659</v>
+        <v>89.45942468164343</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6463218950195</v>
+        <v>89.45942468164343</v>
       </c>
       <c r="K34" t="n">
-        <v>153.3091014807551</v>
+        <v>102.122204267379</v>
       </c>
       <c r="L34" t="n">
-        <v>225.3167148445098</v>
+        <v>174.1298176311336</v>
       </c>
       <c r="M34" t="n">
-        <v>311.8315465465661</v>
+        <v>260.6446493331899</v>
       </c>
       <c r="N34" t="n">
-        <v>561.8556415968004</v>
+        <v>350.2436136023688</v>
       </c>
       <c r="O34" t="n">
-        <v>629.2781905565627</v>
+        <v>417.666162562131</v>
       </c>
       <c r="P34" t="n">
-        <v>663.7473474025993</v>
+        <v>561.733902344555</v>
       </c>
       <c r="Q34" t="n">
-        <v>663.7473474025993</v>
+        <v>662.8644128460222</v>
       </c>
       <c r="R34" t="n">
-        <v>663.0629364529547</v>
+        <v>662.180001896378</v>
       </c>
       <c r="S34" t="n">
-        <v>606.318435555297</v>
+        <v>605.4355009987208</v>
       </c>
       <c r="T34" t="n">
-        <v>540.3859714133272</v>
+        <v>539.5030368567514</v>
       </c>
       <c r="U34" t="n">
-        <v>415.1397669852159</v>
+        <v>414.2568324286406</v>
       </c>
       <c r="V34" t="n">
-        <v>323.3309140363186</v>
+        <v>322.4479794797436</v>
       </c>
       <c r="W34" t="n">
-        <v>198.0309238950209</v>
+        <v>197.1479893384462</v>
       </c>
       <c r="X34" t="n">
-        <v>133.288728657871</v>
+        <v>132.4057941012966</v>
       </c>
       <c r="Y34" t="n">
-        <v>76.01288298086345</v>
+        <v>75.12994842428949</v>
       </c>
     </row>
     <row r="35">
@@ -6911,61 +6911,61 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1151.202809383139</v>
+        <v>1151.20280938314</v>
       </c>
       <c r="C35" t="n">
-        <v>976.280527846132</v>
+        <v>976.2805278461326</v>
       </c>
       <c r="D35" t="n">
-        <v>811.8434613842203</v>
+        <v>811.8434613842207</v>
       </c>
       <c r="E35" t="n">
-        <v>620.6252807801983</v>
+        <v>620.6252807801988</v>
       </c>
       <c r="F35" t="n">
-        <v>404.9870721708699</v>
+        <v>404.9870721708703</v>
       </c>
       <c r="G35" t="n">
-        <v>182.2458581786622</v>
+        <v>182.2458581786623</v>
       </c>
       <c r="H35" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="I35" t="n">
-        <v>41.92767944372088</v>
+        <v>50.81705934118642</v>
       </c>
       <c r="J35" t="n">
-        <v>85.71805877306383</v>
+        <v>190.2867735032913</v>
       </c>
       <c r="K35" t="n">
-        <v>273.6250786345455</v>
+        <v>378.1937933647729</v>
       </c>
       <c r="L35" t="n">
-        <v>558.7094307711607</v>
+        <v>663.2781455013881</v>
       </c>
       <c r="M35" t="n">
-        <v>891.1329962551119</v>
+        <v>995.7017109853393</v>
       </c>
       <c r="N35" t="n">
-        <v>1213.418347574462</v>
+        <v>1509.860978892422</v>
       </c>
       <c r="O35" t="n">
-        <v>1471.614914525927</v>
+        <v>1768.057545843887</v>
       </c>
       <c r="P35" t="n">
-        <v>1846.914834250034</v>
+        <v>1951.483548980261</v>
       </c>
       <c r="Q35" t="n">
-        <v>2096.383972186044</v>
+        <v>2012.049436748535</v>
       </c>
       <c r="R35" t="n">
-        <v>2096.383972186044</v>
+        <v>2096.383972186045</v>
       </c>
       <c r="S35" t="n">
-        <v>2096.383972186044</v>
+        <v>2096.383972186045</v>
       </c>
       <c r="T35" t="n">
-        <v>2069.275180193285</v>
+        <v>2069.275180193286</v>
       </c>
       <c r="U35" t="n">
         <v>2011.069713029953</v>
@@ -6974,7 +6974,7 @@
         <v>1874.987708418626</v>
       </c>
       <c r="W35" t="n">
-        <v>1716.686617465849</v>
+        <v>1716.68661746585</v>
       </c>
       <c r="X35" t="n">
         <v>1537.848675876088</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>830.3594164849853</v>
+        <v>722.0451239014524</v>
       </c>
       <c r="C36" t="n">
-        <v>657.6063014068025</v>
+        <v>706.7278599375475</v>
       </c>
       <c r="D36" t="n">
-        <v>657.6063014068025</v>
+        <v>559.1395532964913</v>
       </c>
       <c r="E36" t="n">
-        <v>499.9967724096572</v>
+        <v>401.530024299346</v>
       </c>
       <c r="F36" t="n">
-        <v>355.040982426274</v>
+        <v>256.5742343159628</v>
       </c>
       <c r="G36" t="n">
-        <v>217.9296596709644</v>
+        <v>119.4629115606532</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1121599028316</v>
+        <v>119.4629115606532</v>
       </c>
       <c r="I36" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="J36" t="n">
-        <v>46.53352317782961</v>
+        <v>46.53352317783006</v>
       </c>
       <c r="K36" t="n">
-        <v>231.0169014301702</v>
+        <v>231.0169014301706</v>
       </c>
       <c r="L36" t="n">
-        <v>539.9271771165772</v>
+        <v>539.9271771165777</v>
       </c>
       <c r="M36" t="n">
-        <v>953.2110925609325</v>
+        <v>953.2110925609329</v>
       </c>
       <c r="N36" t="n">
-        <v>1392.83213548586</v>
+        <v>1392.832135485861</v>
       </c>
       <c r="O36" t="n">
-        <v>1727.371484126847</v>
+        <v>1727.371484126848</v>
       </c>
       <c r="P36" t="n">
-        <v>1979.442263842514</v>
+        <v>1979.442263842515</v>
       </c>
       <c r="Q36" t="n">
-        <v>2096.383972186044</v>
+        <v>2096.383972186045</v>
       </c>
       <c r="R36" t="n">
-        <v>2096.383972186044</v>
+        <v>2018.480827591543</v>
       </c>
       <c r="S36" t="n">
-        <v>1931.025385874767</v>
+        <v>2018.480827591543</v>
       </c>
       <c r="T36" t="n">
-        <v>1731.791203468867</v>
+        <v>2015.016379485952</v>
       </c>
       <c r="U36" t="n">
-        <v>1504.883568517766</v>
+        <v>1788.108744534851</v>
       </c>
       <c r="V36" t="n">
-        <v>1270.632325043367</v>
+        <v>1553.857501060452</v>
       </c>
       <c r="W36" t="n">
-        <v>1018.1178333767</v>
+        <v>1301.343009393785</v>
       </c>
       <c r="X36" t="n">
-        <v>1007.360669082586</v>
+        <v>1094.816110799362</v>
       </c>
       <c r="Y36" t="n">
-        <v>997.4019676065458</v>
+        <v>889.0876750230128</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="C37" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="D37" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="E37" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="F37" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="G37" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="H37" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="I37" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="J37" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="K37" t="n">
         <v>54.5904590294565</v>
@@ -7102,43 +7102,43 @@
         <v>126.5980723932111</v>
       </c>
       <c r="M37" t="n">
-        <v>213.1129040952674</v>
+        <v>213.1129040952675</v>
       </c>
       <c r="N37" t="n">
-        <v>302.7118683644462</v>
+        <v>302.7118683644463</v>
       </c>
       <c r="O37" t="n">
         <v>370.1344173242085</v>
       </c>
       <c r="P37" t="n">
-        <v>404.6035741702451</v>
+        <v>404.6035741702452</v>
       </c>
       <c r="Q37" t="n">
-        <v>404.6035741702451</v>
+        <v>404.6035741702452</v>
       </c>
       <c r="R37" t="n">
-        <v>404.6035741702451</v>
+        <v>404.6035741702452</v>
       </c>
       <c r="S37" t="n">
-        <v>379.9463968178147</v>
+        <v>379.7092907467913</v>
       </c>
       <c r="T37" t="n">
-        <v>346.1012562210721</v>
+        <v>345.8641501500487</v>
       </c>
       <c r="U37" t="n">
-        <v>252.9423753381881</v>
+        <v>252.7052692671647</v>
       </c>
       <c r="V37" t="n">
-        <v>193.220845934518</v>
+        <v>192.9837398634945</v>
       </c>
       <c r="W37" t="n">
-        <v>100.0081793384475</v>
+        <v>99.77107326742399</v>
       </c>
       <c r="X37" t="n">
-        <v>67.11620157550117</v>
+        <v>67.11620157550121</v>
       </c>
       <c r="Y37" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1151.202809383139</v>
+        <v>1151.20280938314</v>
       </c>
       <c r="C38" t="n">
-        <v>976.2805278461321</v>
+        <v>976.2805278461329</v>
       </c>
       <c r="D38" t="n">
-        <v>811.8434613842204</v>
+        <v>811.8434613842212</v>
       </c>
       <c r="E38" t="n">
-        <v>620.6252807801984</v>
+        <v>620.6252807801992</v>
       </c>
       <c r="F38" t="n">
-        <v>404.98707217087</v>
+        <v>404.9870721708708</v>
       </c>
       <c r="G38" t="n">
         <v>182.2458581786622</v>
       </c>
       <c r="H38" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="I38" t="n">
-        <v>41.92767944372088</v>
+        <v>50.81705934118645</v>
       </c>
       <c r="J38" t="n">
-        <v>277.5919753607965</v>
+        <v>286.4813552582621</v>
       </c>
       <c r="K38" t="n">
-        <v>465.4989952222782</v>
+        <v>474.3883751197437</v>
       </c>
       <c r="L38" t="n">
-        <v>750.5833473588932</v>
+        <v>939.4865975266307</v>
       </c>
       <c r="M38" t="n">
-        <v>1083.006912842844</v>
+        <v>1271.910163010582</v>
       </c>
       <c r="N38" t="n">
         <v>1594.195514329931</v>
@@ -7190,34 +7190,34 @@
         <v>1852.392081281396</v>
       </c>
       <c r="P38" t="n">
-        <v>2035.81808441777</v>
+        <v>2035.818084417771</v>
       </c>
       <c r="Q38" t="n">
-        <v>2096.383972186044</v>
+        <v>2096.383972186045</v>
       </c>
       <c r="R38" t="n">
-        <v>2096.383972186044</v>
+        <v>2096.383972186045</v>
       </c>
       <c r="S38" t="n">
-        <v>2096.383972186044</v>
+        <v>2096.383972186045</v>
       </c>
       <c r="T38" t="n">
-        <v>2069.275180193285</v>
+        <v>2069.275180193286</v>
       </c>
       <c r="U38" t="n">
-        <v>2011.069713029952</v>
+        <v>2011.069713029954</v>
       </c>
       <c r="V38" t="n">
-        <v>1874.987708418626</v>
+        <v>1874.987708418627</v>
       </c>
       <c r="W38" t="n">
-        <v>1716.686617465849</v>
+        <v>1716.68661746585</v>
       </c>
       <c r="X38" t="n">
-        <v>1537.848675876088</v>
+        <v>1537.848675876089</v>
       </c>
       <c r="Y38" t="n">
-        <v>1343.025408407472</v>
+        <v>1343.025408407473</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>773.651919911621</v>
+        <v>948.2260061907929</v>
       </c>
       <c r="C39" t="n">
-        <v>600.8988048334381</v>
+        <v>775.4728911126101</v>
       </c>
       <c r="D39" t="n">
-        <v>453.3104981923821</v>
+        <v>627.884584471554</v>
       </c>
       <c r="E39" t="n">
-        <v>295.7009691952368</v>
+        <v>470.2750554744088</v>
       </c>
       <c r="F39" t="n">
-        <v>150.7451792118536</v>
+        <v>325.3192654910256</v>
       </c>
       <c r="G39" t="n">
-        <v>150.7451792118536</v>
+        <v>228.2804113287859</v>
       </c>
       <c r="H39" t="n">
-        <v>41.92767944372088</v>
+        <v>119.4629115606532</v>
       </c>
       <c r="I39" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="J39" t="n">
-        <v>46.53352317782961</v>
+        <v>75.79097456002782</v>
       </c>
       <c r="K39" t="n">
-        <v>231.0169014301702</v>
+        <v>260.2743528123684</v>
       </c>
       <c r="L39" t="n">
-        <v>539.9271771165772</v>
+        <v>569.1846284987755</v>
       </c>
       <c r="M39" t="n">
-        <v>953.2110925609325</v>
+        <v>982.4685439431307</v>
       </c>
       <c r="N39" t="n">
-        <v>1392.83213548586</v>
+        <v>1422.089586868059</v>
       </c>
       <c r="O39" t="n">
-        <v>1727.371484126847</v>
+        <v>1756.628935509046</v>
       </c>
       <c r="P39" t="n">
-        <v>1979.442263842514</v>
+        <v>2008.699715224713</v>
       </c>
       <c r="Q39" t="n">
-        <v>2096.383972186044</v>
+        <v>2096.383972186045</v>
       </c>
       <c r="R39" t="n">
-        <v>2096.383972186044</v>
+        <v>2018.480827591543</v>
       </c>
       <c r="S39" t="n">
-        <v>2070.087623601712</v>
+        <v>1853.122241280265</v>
       </c>
       <c r="T39" t="n">
-        <v>1870.853441195812</v>
+        <v>1653.888058874366</v>
       </c>
       <c r="U39" t="n">
-        <v>1839.71554054502</v>
+        <v>1426.980423923265</v>
       </c>
       <c r="V39" t="n">
-        <v>1605.46429707062</v>
+        <v>1388.498914749174</v>
       </c>
       <c r="W39" t="n">
-        <v>1352.949805403954</v>
+        <v>1135.984423082508</v>
       </c>
       <c r="X39" t="n">
-        <v>1146.422906809531</v>
+        <v>1125.227258788394</v>
       </c>
       <c r="Y39" t="n">
-        <v>940.6944710331815</v>
+        <v>1115.268557312353</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="C40" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="D40" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="E40" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="F40" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="G40" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="H40" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="I40" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="J40" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="K40" t="n">
         <v>54.5904590294565</v>
@@ -7339,43 +7339,43 @@
         <v>126.5980723932111</v>
       </c>
       <c r="M40" t="n">
-        <v>213.1129040952674</v>
+        <v>213.1129040952675</v>
       </c>
       <c r="N40" t="n">
-        <v>302.7118683644462</v>
+        <v>302.7118683644463</v>
       </c>
       <c r="O40" t="n">
         <v>370.1344173242085</v>
       </c>
       <c r="P40" t="n">
-        <v>404.6035741702451</v>
+        <v>404.6035741702452</v>
       </c>
       <c r="Q40" t="n">
-        <v>404.6035741702451</v>
+        <v>404.6035741702452</v>
       </c>
       <c r="R40" t="n">
-        <v>404.6035741702451</v>
+        <v>404.6035741702452</v>
       </c>
       <c r="S40" t="n">
-        <v>379.9463968178147</v>
+        <v>379.9463968178148</v>
       </c>
       <c r="T40" t="n">
-        <v>346.101256221072</v>
+        <v>345.8641501500485</v>
       </c>
       <c r="U40" t="n">
-        <v>252.942375338188</v>
+        <v>252.7052692671646</v>
       </c>
       <c r="V40" t="n">
-        <v>193.2208459345179</v>
+        <v>192.9837398634944</v>
       </c>
       <c r="W40" t="n">
-        <v>100.0081793384473</v>
+        <v>99.77107326742393</v>
       </c>
       <c r="X40" t="n">
-        <v>67.35330764652454</v>
+        <v>67.11620157550118</v>
       </c>
       <c r="Y40" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
     </row>
     <row r="41">
@@ -7388,61 +7388,61 @@
         <v>1151.202809383139</v>
       </c>
       <c r="C41" t="n">
-        <v>976.2805278461317</v>
+        <v>976.2805278461316</v>
       </c>
       <c r="D41" t="n">
-        <v>811.8434613842198</v>
+        <v>811.8434613842197</v>
       </c>
       <c r="E41" t="n">
-        <v>620.6252807801978</v>
+        <v>620.6252807801977</v>
       </c>
       <c r="F41" t="n">
-        <v>404.9870721708694</v>
+        <v>404.9870721708692</v>
       </c>
       <c r="G41" t="n">
-        <v>182.2458581786622</v>
+        <v>182.2458581786623</v>
       </c>
       <c r="H41" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="I41" t="n">
-        <v>41.92767944372088</v>
+        <v>50.81705934118636</v>
       </c>
       <c r="J41" t="n">
-        <v>85.71805877306383</v>
+        <v>94.60743867052932</v>
       </c>
       <c r="K41" t="n">
-        <v>273.6250786345455</v>
+        <v>282.514458532011</v>
       </c>
       <c r="L41" t="n">
-        <v>558.7094307711607</v>
+        <v>663.2781455013884</v>
       </c>
       <c r="M41" t="n">
-        <v>891.1329962551119</v>
+        <v>995.7017109853397</v>
       </c>
       <c r="N41" t="n">
-        <v>1213.418347574462</v>
+        <v>1317.987062304689</v>
       </c>
       <c r="O41" t="n">
-        <v>1471.614914525927</v>
+        <v>1576.183629256154</v>
       </c>
       <c r="P41" t="n">
-        <v>1846.914834250034</v>
+        <v>1759.609632392529</v>
       </c>
       <c r="Q41" t="n">
-        <v>2012.049436748534</v>
+        <v>2012.049436748535</v>
       </c>
       <c r="R41" t="n">
-        <v>2096.383972186044</v>
+        <v>2096.383972186045</v>
       </c>
       <c r="S41" t="n">
-        <v>2096.383972186044</v>
+        <v>2096.383972186045</v>
       </c>
       <c r="T41" t="n">
-        <v>2069.275180193285</v>
+        <v>2069.275180193286</v>
       </c>
       <c r="U41" t="n">
-        <v>2011.069713029952</v>
+        <v>2011.069713029953</v>
       </c>
       <c r="V41" t="n">
         <v>1874.987708418626</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>801.945742898798</v>
+        <v>773.651919911621</v>
       </c>
       <c r="C42" t="n">
-        <v>629.1926278206151</v>
+        <v>600.8988048334381</v>
       </c>
       <c r="D42" t="n">
-        <v>481.604321179559</v>
+        <v>453.3104981923821</v>
       </c>
       <c r="E42" t="n">
-        <v>323.9947921824137</v>
+        <v>295.7009691952368</v>
       </c>
       <c r="F42" t="n">
-        <v>179.0390021990305</v>
+        <v>150.7451792118537</v>
       </c>
       <c r="G42" t="n">
-        <v>41.92767944372088</v>
+        <v>150.7451792118537</v>
       </c>
       <c r="H42" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="I42" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="J42" t="n">
-        <v>46.53352317782961</v>
+        <v>75.79097456002782</v>
       </c>
       <c r="K42" t="n">
-        <v>231.0169014301702</v>
+        <v>260.2743528123684</v>
       </c>
       <c r="L42" t="n">
-        <v>539.9271771165772</v>
+        <v>569.1846284987755</v>
       </c>
       <c r="M42" t="n">
-        <v>953.2110925609325</v>
+        <v>982.4685439431307</v>
       </c>
       <c r="N42" t="n">
-        <v>1392.83213548586</v>
+        <v>1422.089586868059</v>
       </c>
       <c r="O42" t="n">
-        <v>1727.371484126847</v>
+        <v>1756.628935509046</v>
       </c>
       <c r="P42" t="n">
-        <v>1979.442263842514</v>
+        <v>2008.699715224713</v>
       </c>
       <c r="Q42" t="n">
-        <v>2096.383972186044</v>
+        <v>2096.383972186045</v>
       </c>
       <c r="R42" t="n">
-        <v>2096.383972186044</v>
+        <v>2096.383972186045</v>
       </c>
       <c r="S42" t="n">
-        <v>2096.383972186044</v>
+        <v>2096.383972186045</v>
       </c>
       <c r="T42" t="n">
-        <v>2092.919524080453</v>
+        <v>1897.149789780145</v>
       </c>
       <c r="U42" t="n">
-        <v>1868.009363532197</v>
+        <v>1672.672989423459</v>
       </c>
       <c r="V42" t="n">
-        <v>1633.758120057797</v>
+        <v>1438.42174594906</v>
       </c>
       <c r="W42" t="n">
-        <v>1381.243628391131</v>
+        <v>1185.907254282393</v>
       </c>
       <c r="X42" t="n">
-        <v>1174.716729796708</v>
+        <v>979.3803556879706</v>
       </c>
       <c r="Y42" t="n">
-        <v>968.9882940203585</v>
+        <v>773.651919911621</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="C43" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="D43" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="E43" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="F43" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="G43" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="H43" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="I43" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="J43" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="K43" t="n">
         <v>54.5904590294565</v>
@@ -7576,43 +7576,43 @@
         <v>126.5980723932111</v>
       </c>
       <c r="M43" t="n">
-        <v>213.1129040952674</v>
+        <v>213.1129040952675</v>
       </c>
       <c r="N43" t="n">
-        <v>302.7118683644462</v>
+        <v>302.7118683644463</v>
       </c>
       <c r="O43" t="n">
         <v>370.1344173242085</v>
       </c>
       <c r="P43" t="n">
-        <v>404.6035741702451</v>
+        <v>404.6035741702452</v>
       </c>
       <c r="Q43" t="n">
-        <v>404.6035741702451</v>
+        <v>404.6035741702452</v>
       </c>
       <c r="R43" t="n">
-        <v>404.6035741702451</v>
+        <v>404.6035741702452</v>
       </c>
       <c r="S43" t="n">
-        <v>379.9463968178147</v>
+        <v>379.7092907467917</v>
       </c>
       <c r="T43" t="n">
-        <v>346.101256221072</v>
+        <v>345.864150150049</v>
       </c>
       <c r="U43" t="n">
-        <v>252.942375338188</v>
+        <v>252.7052692671649</v>
       </c>
       <c r="V43" t="n">
-        <v>193.2208459345179</v>
+        <v>192.9837398634947</v>
       </c>
       <c r="W43" t="n">
-        <v>100.0081793384473</v>
+        <v>99.7710732674241</v>
       </c>
       <c r="X43" t="n">
-        <v>67.11620157550121</v>
+        <v>67.11620157550126</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
     </row>
     <row r="44">
@@ -7625,55 +7625,55 @@
         <v>1151.202809383139</v>
       </c>
       <c r="C44" t="n">
-        <v>976.2805278461321</v>
+        <v>976.2805278461319</v>
       </c>
       <c r="D44" t="n">
-        <v>811.8434613842205</v>
+        <v>811.8434613842201</v>
       </c>
       <c r="E44" t="n">
-        <v>620.6252807801984</v>
+        <v>620.625280780198</v>
       </c>
       <c r="F44" t="n">
-        <v>404.9870721708699</v>
+        <v>404.9870721708694</v>
       </c>
       <c r="G44" t="n">
-        <v>182.2458581786622</v>
+        <v>182.2458581786623</v>
       </c>
       <c r="H44" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="I44" t="n">
-        <v>50.81705934118641</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="J44" t="n">
-        <v>94.60743867052938</v>
+        <v>88.18984130870658</v>
       </c>
       <c r="K44" t="n">
-        <v>474.3883751197437</v>
+        <v>276.0968611701882</v>
       </c>
       <c r="L44" t="n">
-        <v>759.4727272563589</v>
+        <v>753.055129894536</v>
       </c>
       <c r="M44" t="n">
-        <v>1091.89629274031</v>
+        <v>1271.910163010582</v>
       </c>
       <c r="N44" t="n">
-        <v>1414.18164405966</v>
+        <v>1594.195514329931</v>
       </c>
       <c r="O44" t="n">
-        <v>1672.378211011125</v>
+        <v>1852.392081281396</v>
       </c>
       <c r="P44" t="n">
-        <v>1855.804214147499</v>
+        <v>2035.818084417771</v>
       </c>
       <c r="Q44" t="n">
-        <v>2096.383972186044</v>
+        <v>2096.383972186045</v>
       </c>
       <c r="R44" t="n">
-        <v>2096.383972186044</v>
+        <v>2096.383972186045</v>
       </c>
       <c r="S44" t="n">
-        <v>2096.383972186044</v>
+        <v>2096.383972186045</v>
       </c>
       <c r="T44" t="n">
         <v>2069.275180193285</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>851.1871520285533</v>
+        <v>629.1926278206151</v>
       </c>
       <c r="C45" t="n">
-        <v>678.4340369503705</v>
+        <v>629.1926278206151</v>
       </c>
       <c r="D45" t="n">
-        <v>530.8457303093144</v>
+        <v>481.604321179559</v>
       </c>
       <c r="E45" t="n">
-        <v>373.2362013121691</v>
+        <v>323.9947921824137</v>
       </c>
       <c r="F45" t="n">
-        <v>228.2804113287859</v>
+        <v>179.0390021990305</v>
       </c>
       <c r="G45" t="n">
-        <v>228.2804113287859</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="H45" t="n">
-        <v>119.4629115606532</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="I45" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="J45" t="n">
-        <v>46.53352317782961</v>
+        <v>46.53352317783006</v>
       </c>
       <c r="K45" t="n">
-        <v>231.0169014301702</v>
+        <v>231.0169014301706</v>
       </c>
       <c r="L45" t="n">
-        <v>539.9271771165772</v>
+        <v>539.9271771165777</v>
       </c>
       <c r="M45" t="n">
-        <v>953.2110925609325</v>
+        <v>953.2110925609329</v>
       </c>
       <c r="N45" t="n">
-        <v>1392.83213548586</v>
+        <v>1392.832135485861</v>
       </c>
       <c r="O45" t="n">
-        <v>1727.371484126847</v>
+        <v>1727.371484126848</v>
       </c>
       <c r="P45" t="n">
-        <v>1979.442263842514</v>
+        <v>1979.442263842515</v>
       </c>
       <c r="Q45" t="n">
-        <v>2096.383972186044</v>
+        <v>2096.383972186045</v>
       </c>
       <c r="R45" t="n">
-        <v>2018.480827591542</v>
+        <v>2096.383972186045</v>
       </c>
       <c r="S45" t="n">
-        <v>1853.122241280265</v>
+        <v>2096.383972186045</v>
       </c>
       <c r="T45" t="n">
-        <v>1849.657793174674</v>
+        <v>1922.163883405115</v>
       </c>
       <c r="U45" t="n">
-        <v>1721.481038361643</v>
+        <v>1695.256248454014</v>
       </c>
       <c r="V45" t="n">
-        <v>1682.999529187553</v>
+        <v>1461.005004979615</v>
       </c>
       <c r="W45" t="n">
-        <v>1430.485037520886</v>
+        <v>1208.490513312948</v>
       </c>
       <c r="X45" t="n">
-        <v>1223.958138926463</v>
+        <v>1001.963614718525</v>
       </c>
       <c r="Y45" t="n">
-        <v>1018.229703150114</v>
+        <v>796.2351789421756</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="C46" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="D46" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="E46" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="F46" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="G46" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="H46" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="I46" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="J46" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="K46" t="n">
         <v>54.5904590294565</v>
@@ -7813,43 +7813,43 @@
         <v>126.5980723932111</v>
       </c>
       <c r="M46" t="n">
-        <v>213.1129040952674</v>
+        <v>213.1129040952675</v>
       </c>
       <c r="N46" t="n">
-        <v>302.7118683644462</v>
+        <v>302.7118683644463</v>
       </c>
       <c r="O46" t="n">
         <v>370.1344173242085</v>
       </c>
       <c r="P46" t="n">
-        <v>404.6035741702451</v>
+        <v>404.6035741702452</v>
       </c>
       <c r="Q46" t="n">
-        <v>404.6035741702451</v>
+        <v>404.6035741702452</v>
       </c>
       <c r="R46" t="n">
-        <v>404.6035741702451</v>
+        <v>404.6035741702452</v>
       </c>
       <c r="S46" t="n">
-        <v>379.7092907467913</v>
+        <v>379.7092907467917</v>
       </c>
       <c r="T46" t="n">
-        <v>345.8641501500487</v>
+        <v>345.864150150049</v>
       </c>
       <c r="U46" t="n">
-        <v>252.7052692671647</v>
+        <v>252.7052692671649</v>
       </c>
       <c r="V46" t="n">
-        <v>192.9837398634945</v>
+        <v>192.9837398634947</v>
       </c>
       <c r="W46" t="n">
-        <v>99.77107326742399</v>
+        <v>99.7710732674241</v>
       </c>
       <c r="X46" t="n">
-        <v>67.11620157550121</v>
+        <v>67.11620157550126</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.92767944372088</v>
+        <v>41.92767944372089</v>
       </c>
     </row>
   </sheetData>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>175.8604797789567</v>
+        <v>131.627773385681</v>
       </c>
       <c r="K11" t="n">
-        <v>267.7755418899296</v>
+        <v>267.7755418899279</v>
       </c>
       <c r="L11" t="n">
-        <v>266.8730544583528</v>
+        <v>146.4036710752814</v>
       </c>
       <c r="M11" t="n">
-        <v>252.1820789388987</v>
+        <v>131.7126955558274</v>
       </c>
       <c r="N11" t="n">
-        <v>200.6692696361657</v>
+        <v>183.7243116170421</v>
       </c>
       <c r="O11" t="n">
-        <v>135.2275754309673</v>
+        <v>255.696958814037</v>
       </c>
       <c r="P11" t="n">
-        <v>149.3918654514992</v>
+        <v>269.8612488345689</v>
       </c>
       <c r="Q11" t="n">
-        <v>159.6299258739032</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R11" t="n">
         <v>68.34507666790174</v>
@@ -8769,25 +8769,25 @@
         <v>96.92932815169495</v>
       </c>
       <c r="K12" t="n">
-        <v>209.1663831566173</v>
+        <v>88.6969997735459</v>
       </c>
       <c r="L12" t="n">
         <v>73.64337761417625</v>
       </c>
       <c r="M12" t="n">
-        <v>66.87476585115628</v>
+        <v>182.4766994005666</v>
       </c>
       <c r="N12" t="n">
-        <v>174.9237931802378</v>
+        <v>174.9237931802361</v>
       </c>
       <c r="O12" t="n">
-        <v>189.6466572787498</v>
+        <v>192.1676614500734</v>
       </c>
       <c r="P12" t="n">
-        <v>76.58433017779022</v>
+        <v>197.0537135608599</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>100.3574415245459</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8924,22 +8924,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>175.8604797789567</v>
+        <v>131.627773385681</v>
       </c>
       <c r="K14" t="n">
-        <v>267.7755418899296</v>
+        <v>147.3061585068582</v>
       </c>
       <c r="L14" t="n">
-        <v>266.8730544583528</v>
+        <v>266.8730544583511</v>
       </c>
       <c r="M14" t="n">
-        <v>131.7126955558274</v>
+        <v>247.3146291052377</v>
       </c>
       <c r="N14" t="n">
-        <v>249.7694258631009</v>
+        <v>249.7694258630991</v>
       </c>
       <c r="O14" t="n">
-        <v>206.5968025871035</v>
+        <v>255.696958814037</v>
       </c>
       <c r="P14" t="n">
         <v>149.3918654514992</v>
@@ -9003,28 +9003,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>96.92932815169495</v>
       </c>
       <c r="K15" t="n">
-        <v>88.6969997735459</v>
+        <v>204.2989333229562</v>
       </c>
       <c r="L15" t="n">
         <v>73.64337761417625</v>
       </c>
       <c r="M15" t="n">
-        <v>66.87476585115628</v>
+        <v>187.3441492342259</v>
       </c>
       <c r="N15" t="n">
-        <v>138.1974404065824</v>
+        <v>174.9237931802361</v>
       </c>
       <c r="O15" t="n">
-        <v>192.1676614500751</v>
+        <v>192.1676614500734</v>
       </c>
       <c r="P15" t="n">
-        <v>197.0537135608616</v>
+        <v>76.58433017779022</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>100.3574415245459</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>175.8604797789567</v>
+        <v>131.627773385681</v>
       </c>
       <c r="K17" t="n">
-        <v>267.7755418899296</v>
+        <v>147.3061585068582</v>
       </c>
       <c r="L17" t="n">
-        <v>266.8730544583528</v>
+        <v>266.8730544583511</v>
       </c>
       <c r="M17" t="n">
-        <v>252.1820789388987</v>
+        <v>186.13696469284</v>
       </c>
       <c r="N17" t="n">
-        <v>200.6692696361657</v>
+        <v>249.7694258630991</v>
       </c>
       <c r="O17" t="n">
-        <v>135.2275754309673</v>
+        <v>255.696958814037</v>
       </c>
       <c r="P17" t="n">
         <v>149.3918654514992</v>
       </c>
       <c r="Q17" t="n">
-        <v>159.6299258739032</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9243,22 +9243,22 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>88.6969997735459</v>
+        <v>209.1663831566156</v>
       </c>
       <c r="L18" t="n">
-        <v>73.64337761417625</v>
+        <v>194.1127609972459</v>
       </c>
       <c r="M18" t="n">
-        <v>66.87476585115628</v>
+        <v>150.6177964605688</v>
       </c>
       <c r="N18" t="n">
-        <v>174.9237931802378</v>
+        <v>54.45440979716646</v>
       </c>
       <c r="O18" t="n">
-        <v>192.1676614500751</v>
+        <v>71.69827806700373</v>
       </c>
       <c r="P18" t="n">
-        <v>160.3273607872061</v>
+        <v>76.58433017779022</v>
       </c>
       <c r="Q18" t="n">
         <v>218.4803792452831</v>
@@ -9401,25 +9401,25 @@
         <v>131.627773385681</v>
       </c>
       <c r="K20" t="n">
-        <v>267.7755418899296</v>
+        <v>147.3061585068582</v>
       </c>
       <c r="L20" t="n">
-        <v>146.4036710752814</v>
+        <v>266.8730544583511</v>
       </c>
       <c r="M20" t="n">
-        <v>131.7126955558274</v>
+        <v>252.182078938897</v>
       </c>
       <c r="N20" t="n">
-        <v>183.7243116170437</v>
+        <v>249.7694258630992</v>
       </c>
       <c r="O20" t="n">
-        <v>255.6969588140387</v>
+        <v>250.8295089803776</v>
       </c>
       <c r="P20" t="n">
-        <v>269.8612488345706</v>
+        <v>149.3918654514992</v>
       </c>
       <c r="Q20" t="n">
-        <v>220.8075902863009</v>
+        <v>159.6299258739032</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9477,28 +9477,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>131.1346767540252</v>
+        <v>96.92932815169495</v>
       </c>
       <c r="K21" t="n">
-        <v>209.1663831566173</v>
+        <v>88.6969997735459</v>
       </c>
       <c r="L21" t="n">
-        <v>194.1127609972476</v>
+        <v>73.64337761417625</v>
       </c>
       <c r="M21" t="n">
-        <v>187.3441492342276</v>
+        <v>66.87476585115628</v>
       </c>
       <c r="N21" t="n">
-        <v>54.45440979716646</v>
+        <v>174.9237931802361</v>
       </c>
       <c r="O21" t="n">
-        <v>153.0948630140854</v>
+        <v>192.1676614500734</v>
       </c>
       <c r="P21" t="n">
-        <v>76.58433017779022</v>
+        <v>194.532709389533</v>
       </c>
       <c r="Q21" t="n">
-        <v>100.3574415245459</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9635,22 +9635,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>175.8604797789567</v>
+        <v>131.627773385681</v>
       </c>
       <c r="K23" t="n">
-        <v>267.7755418899296</v>
+        <v>147.3061585068582</v>
       </c>
       <c r="L23" t="n">
-        <v>266.8730544583528</v>
+        <v>266.8730544583511</v>
       </c>
       <c r="M23" t="n">
-        <v>252.1820789388987</v>
+        <v>252.182078938897</v>
       </c>
       <c r="N23" t="n">
-        <v>200.6692696361657</v>
+        <v>249.7694258630992</v>
       </c>
       <c r="O23" t="n">
-        <v>135.2275754309673</v>
+        <v>250.8295089803776</v>
       </c>
       <c r="P23" t="n">
         <v>149.3918654514992</v>
@@ -9717,16 +9717,16 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
-        <v>209.1663831566173</v>
+        <v>209.1663831566156</v>
       </c>
       <c r="L24" t="n">
-        <v>194.1127609972476</v>
+        <v>194.1127609972459</v>
       </c>
       <c r="M24" t="n">
-        <v>187.3441492342276</v>
+        <v>187.3441492342259</v>
       </c>
       <c r="N24" t="n">
-        <v>135.8509947442481</v>
+        <v>135.8509947442465</v>
       </c>
       <c r="O24" t="n">
         <v>71.69827806700373</v>
@@ -10662,7 +10662,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>101.5816955598856</v>
+        <v>101.581695559886</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10899,7 +10899,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>101.5816955598856</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
@@ -10920,7 +10920,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>188.9273980511437</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11136,7 +11136,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>101.5816955598856</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11157,7 +11157,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>218.4803792452831</v>
+        <v>188.9273980511437</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11373,7 +11373,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>101.5816955598856</v>
+        <v>101.581695559886</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>180.9119809399704</v>
+        <v>60.44259755690017</v>
       </c>
       <c r="C11" t="n">
-        <v>164.180666627518</v>
+        <v>164.1806666275174</v>
       </c>
       <c r="D11" t="n">
-        <v>153.8003037031737</v>
+        <v>153.8003037031732</v>
       </c>
       <c r="E11" t="n">
-        <v>92.04948579876573</v>
+        <v>180.3136067038622</v>
       </c>
       <c r="F11" t="n">
-        <v>204.4894344291162</v>
+        <v>204.4894344291156</v>
       </c>
       <c r="G11" t="n">
-        <v>211.5214097581667</v>
+        <v>91.05202637509652</v>
       </c>
       <c r="H11" t="n">
-        <v>9.453221470401687</v>
+        <v>9.453221470402823</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>17.84531197871155</v>
       </c>
       <c r="U11" t="n">
-        <v>48.63102039758061</v>
+        <v>48.63102039758004</v>
       </c>
       <c r="V11" t="n">
-        <v>5.259409088023318</v>
+        <v>19.61935958728643</v>
       </c>
       <c r="W11" t="n">
-        <v>147.7256879491299</v>
+        <v>147.7256879491294</v>
       </c>
       <c r="X11" t="n">
-        <v>168.0571700797447</v>
+        <v>168.0571700797442</v>
       </c>
       <c r="Y11" t="n">
-        <v>63.4132593167398</v>
+        <v>183.8826426998106</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>180.9119809399704</v>
+        <v>180.9119809399699</v>
       </c>
       <c r="C14" t="n">
-        <v>164.180666627518</v>
+        <v>164.1806666275175</v>
       </c>
       <c r="D14" t="n">
-        <v>33.33092032010238</v>
+        <v>33.33092032010357</v>
       </c>
       <c r="E14" t="n">
-        <v>180.3136067038628</v>
+        <v>180.3136067038623</v>
       </c>
       <c r="F14" t="n">
-        <v>204.4894344291162</v>
+        <v>204.4894344291157</v>
       </c>
       <c r="G14" t="n">
-        <v>105.4119768743575</v>
+        <v>211.5214097581662</v>
       </c>
       <c r="H14" t="n">
-        <v>9.453221470401687</v>
+        <v>9.45322147040288</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>17.84531197871212</v>
+        <v>17.84531197871161</v>
       </c>
       <c r="U14" t="n">
-        <v>48.63102039758061</v>
+        <v>48.63102039758009</v>
       </c>
       <c r="V14" t="n">
-        <v>125.7287924710947</v>
+        <v>5.259409088024512</v>
       </c>
       <c r="W14" t="n">
-        <v>27.25630456605857</v>
+        <v>147.7256879491294</v>
       </c>
       <c r="X14" t="n">
-        <v>168.0571700797447</v>
+        <v>168.0571700797442</v>
       </c>
       <c r="Y14" t="n">
-        <v>183.8826426998112</v>
+        <v>77.77320981600296</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>900333.386845734</v>
+        <v>900333.3868457336</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>900333.3868457341</v>
+        <v>900333.3868457336</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1030135.489433683</v>
+        <v>1030135.489433682</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1030135.489433683</v>
+        <v>1030135.489433682</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1030135.489433683</v>
+        <v>1030135.489433682</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>507597.7360973379</v>
+      </c>
+      <c r="C2" t="n">
+        <v>507597.7360973379</v>
+      </c>
+      <c r="D2" t="n">
         <v>507597.7360973377</v>
-      </c>
-      <c r="C2" t="n">
-        <v>507597.7360973376</v>
-      </c>
-      <c r="D2" t="n">
-        <v>507597.7360973376</v>
       </c>
       <c r="E2" t="n">
         <v>436587.3511688081</v>
       </c>
       <c r="F2" t="n">
-        <v>436587.351168808</v>
+        <v>436587.3511688082</v>
       </c>
       <c r="G2" t="n">
-        <v>508699.6303843351</v>
+        <v>508699.6303843353</v>
       </c>
       <c r="H2" t="n">
-        <v>508699.6303843351</v>
+        <v>508699.6303843353</v>
       </c>
       <c r="I2" t="n">
-        <v>508699.6303843351</v>
+        <v>508699.6303843354</v>
       </c>
       <c r="J2" t="n">
-        <v>508699.6303843356</v>
+        <v>508699.6303843354</v>
       </c>
       <c r="K2" t="n">
+        <v>508699.6303843352</v>
+      </c>
+      <c r="L2" t="n">
         <v>508699.6303843353</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>508699.6303843354</v>
+      </c>
+      <c r="N2" t="n">
         <v>508699.6303843358</v>
       </c>
-      <c r="M2" t="n">
-        <v>508699.6303843358</v>
-      </c>
-      <c r="N2" t="n">
-        <v>508699.6303843355</v>
-      </c>
       <c r="O2" t="n">
-        <v>508699.6303843358</v>
+        <v>508699.6303843346</v>
       </c>
       <c r="P2" t="n">
-        <v>508699.6303843352</v>
+        <v>508699.6303843349</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>303917.1774251078</v>
+        <v>303917.1774251077</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>100583.0339768755</v>
+        <v>100583.0339768756</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>166180.0073458105</v>
+        <v>166180.0073458108</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>100583.0339768755</v>
+        <v>100583.0339768756</v>
       </c>
       <c r="M3" t="n">
-        <v>25413.16024781995</v>
+        <v>25413.16024781963</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>29053.43534114913</v>
+        <v>29053.43534114934</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>459145.3766997027</v>
       </c>
       <c r="E4" t="n">
-        <v>349359.7455095866</v>
+        <v>349359.7455095867</v>
       </c>
       <c r="F4" t="n">
-        <v>349359.7455095866</v>
+        <v>349359.7455095868</v>
       </c>
       <c r="G4" t="n">
         <v>415214.6490622307</v>
@@ -26442,19 +26442,19 @@
         <v>414865.9762198932</v>
       </c>
       <c r="K4" t="n">
-        <v>414865.9762198931</v>
+        <v>414865.9762198932</v>
       </c>
       <c r="L4" t="n">
         <v>414865.9762198932</v>
       </c>
       <c r="M4" t="n">
-        <v>414308.392880118</v>
+        <v>414308.3928801181</v>
       </c>
       <c r="N4" t="n">
         <v>414308.392880118</v>
       </c>
       <c r="O4" t="n">
-        <v>414308.3928801181</v>
+        <v>414308.392880118</v>
       </c>
       <c r="P4" t="n">
         <v>414308.392880118</v>
@@ -26476,28 +26476,28 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>27242.34074452742</v>
+        <v>27242.34074452737</v>
       </c>
       <c r="F5" t="n">
-        <v>27242.34074452742</v>
+        <v>27242.34074452736</v>
       </c>
       <c r="G5" t="n">
-        <v>37812.23459877985</v>
+        <v>37812.2345987798</v>
       </c>
       <c r="H5" t="n">
-        <v>37812.23459877985</v>
+        <v>37812.2345987798</v>
       </c>
       <c r="I5" t="n">
-        <v>37812.23459877985</v>
+        <v>37812.2345987798</v>
       </c>
       <c r="J5" t="n">
-        <v>55680.82199970234</v>
+        <v>55680.82199970227</v>
       </c>
       <c r="K5" t="n">
-        <v>55680.82199970233</v>
+        <v>55680.82199970227</v>
       </c>
       <c r="L5" t="n">
-        <v>55680.82199970234</v>
+        <v>55680.82199970227</v>
       </c>
       <c r="M5" t="n">
         <v>51026.85720110407</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14824.75939763498</v>
+        <v>14820.35182048717</v>
       </c>
       <c r="C6" t="n">
-        <v>14824.75939763492</v>
+        <v>14820.35182048717</v>
       </c>
       <c r="D6" t="n">
-        <v>14824.75939763487</v>
+        <v>14820.35182048699</v>
       </c>
       <c r="E6" t="n">
-        <v>-243931.9125104138</v>
+        <v>-244220.3616272759</v>
       </c>
       <c r="F6" t="n">
-        <v>59985.26491469394</v>
+        <v>59696.81579783206</v>
       </c>
       <c r="G6" t="n">
-        <v>-44910.28725355099</v>
+        <v>-44910.28725355082</v>
       </c>
       <c r="H6" t="n">
-        <v>55672.74672332449</v>
+        <v>55672.74672332477</v>
       </c>
       <c r="I6" t="n">
-        <v>55672.74672332449</v>
+        <v>55672.74672332483</v>
       </c>
       <c r="J6" t="n">
-        <v>-128027.1751810704</v>
+        <v>-128027.1751810709</v>
       </c>
       <c r="K6" t="n">
-        <v>38152.83216473982</v>
+        <v>38152.83216473977</v>
       </c>
       <c r="L6" t="n">
-        <v>-62430.20181213526</v>
+        <v>-62430.20181213577</v>
       </c>
       <c r="M6" t="n">
-        <v>17951.22005529374</v>
+        <v>17951.22005529356</v>
       </c>
       <c r="N6" t="n">
-        <v>43364.38030311336</v>
+        <v>43364.38030311364</v>
       </c>
       <c r="O6" t="n">
-        <v>14310.94496196449</v>
+        <v>14310.94496196321</v>
       </c>
       <c r="P6" t="n">
-        <v>43364.38030311312</v>
+        <v>43364.38030311283</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="F2" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="G2" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="H2" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="I2" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="J2" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="K2" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="L2" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="M2" t="n">
         <v>193.8120369573057</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>120.4693833830714</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="F4" t="n">
-        <v>120.4693833830714</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="G4" t="n">
-        <v>120.4693833830714</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="H4" t="n">
-        <v>120.4693833830714</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="I4" t="n">
-        <v>120.4693833830714</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="J4" t="n">
-        <v>644.5653764295824</v>
+        <v>644.5653764295807</v>
       </c>
       <c r="K4" t="n">
-        <v>644.5653764295823</v>
+        <v>644.5653764295807</v>
       </c>
       <c r="L4" t="n">
-        <v>644.5653764295823</v>
+        <v>644.5653764295807</v>
       </c>
       <c r="M4" t="n">
-        <v>524.095993046511</v>
+        <v>524.0959930465111</v>
       </c>
       <c r="N4" t="n">
-        <v>524.095993046511</v>
+        <v>524.0959930465111</v>
       </c>
       <c r="O4" t="n">
-        <v>524.095993046511</v>
+        <v>524.0959930465111</v>
       </c>
       <c r="P4" t="n">
-        <v>524.095993046511</v>
+        <v>524.0959930465111</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>125.7287924710944</v>
+        <v>125.7287924710945</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>36.31679417643642</v>
+        <v>36.31679417643676</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>125.7287924710944</v>
+        <v>125.7287924710945</v>
       </c>
       <c r="M2" t="n">
-        <v>31.76645030977494</v>
+        <v>31.76645030977454</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>36.31679417643642</v>
+        <v>36.31679417643667</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>120.4693833830714</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>125.7287924710944</v>
+        <v>125.7287924710945</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>36.31679417643642</v>
+        <v>36.31679417643676</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>120.4693833830714</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="C11" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="D11" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="E11" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="F11" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="G11" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="H11" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="I11" t="n">
         <v>184.8328653437042</v>
@@ -28141,22 +28141,22 @@
         <v>193.8120369573057</v>
       </c>
       <c r="T11" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="U11" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="V11" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="W11" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="X11" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="Y11" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
     </row>
     <row r="12">
@@ -28184,7 +28184,7 @@
         <v>135.7402095277565</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.7293247704514</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>77.12411314855666</v>
       </c>
       <c r="S12" t="n">
-        <v>163.7050004481646</v>
+        <v>43.23561706509496</v>
       </c>
       <c r="T12" t="n">
-        <v>197.2418405818404</v>
+        <v>76.77245719877071</v>
       </c>
       <c r="U12" t="n">
-        <v>140.0259837617122</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="V12" t="n">
-        <v>202.8044290514246</v>
+        <v>153.6327647414944</v>
       </c>
       <c r="W12" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="X12" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="Y12" t="n">
-        <v>83.20176803551466</v>
+        <v>202.8044290514252</v>
       </c>
     </row>
     <row r="13">
@@ -28296,25 +28296,25 @@
         <v>162.723153487679</v>
       </c>
       <c r="S13" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="T13" t="n">
-        <v>202.8044290514246</v>
+        <v>139.6229493822755</v>
       </c>
       <c r="U13" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="V13" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="W13" t="n">
-        <v>165.6231935043442</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="X13" t="n">
-        <v>176.8041849293594</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="Y13" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="C14" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="D14" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="E14" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="F14" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="G14" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="H14" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="I14" t="n">
         <v>184.8328653437042</v>
@@ -28378,22 +28378,22 @@
         <v>193.8120369573057</v>
       </c>
       <c r="T14" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="U14" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="V14" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="W14" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="X14" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="Y14" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
     </row>
     <row r="15">
@@ -28418,13 +28418,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>135.7402095277565</v>
+        <v>15.27082614468686</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>107.7293247704514</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>76.75987979576297</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>58.44800729109886</v>
+        <v>163.7050004481646</v>
       </c>
       <c r="T15" t="n">
         <v>197.2418405818404</v>
       </c>
       <c r="U15" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="V15" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="W15" t="n">
-        <v>202.8044290514246</v>
+        <v>152.3397975372353</v>
       </c>
       <c r="X15" t="n">
-        <v>202.8044290514246</v>
+        <v>83.99224622540861</v>
       </c>
       <c r="Y15" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
     </row>
     <row r="16">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>180.0836914906838</v>
+        <v>116.9022118215345</v>
       </c>
       <c r="C16" t="n">
         <v>167.3365529312023</v>
@@ -28506,7 +28506,7 @@
         <v>146.6235438143066</v>
       </c>
       <c r="J16" t="n">
-        <v>68.776762027815</v>
+        <v>72.06468585899248</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28527,31 +28527,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>59.89355583796826</v>
       </c>
       <c r="R16" t="n">
         <v>162.723153487679</v>
       </c>
       <c r="S16" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="T16" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="U16" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="V16" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="W16" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="X16" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
       <c r="Y16" t="n">
-        <v>202.8044290514246</v>
+        <v>202.8044290514252</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="C17" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="D17" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="E17" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="F17" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="G17" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="H17" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="I17" t="n">
         <v>184.8328653437042</v>
@@ -28621,16 +28621,16 @@
         <v>251.4354494490053</v>
       </c>
       <c r="V17" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="W17" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="X17" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="Y17" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
     </row>
     <row r="18">
@@ -28655,13 +28655,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>63.04538620519557</v>
+        <v>135.7402095277565</v>
       </c>
       <c r="H18" t="n">
         <v>107.7293247704514</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>76.75987979576297</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,25 +28688,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>77.12411314855666</v>
       </c>
       <c r="S18" t="n">
-        <v>43.23561706509324</v>
+        <v>163.7050004481646</v>
       </c>
       <c r="T18" t="n">
-        <v>76.772457198769</v>
+        <v>197.2418405818404</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6385586015903</v>
+        <v>104.1691752185207</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>111.4393476565855</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>143.8799138661923</v>
       </c>
       <c r="X18" t="n">
-        <v>204.4616296084783</v>
+        <v>83.99224622540861</v>
       </c>
       <c r="Y18" t="n">
         <v>203.671151418586</v>
@@ -28722,7 +28722,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
-        <v>167.3365529312023</v>
+        <v>60.7150422319737</v>
       </c>
       <c r="D19" t="n">
         <v>149.0055665145194</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>56.10164278845207</v>
+        <v>162.723153487679</v>
       </c>
       <c r="S19" t="n">
         <v>218.2226425362118</v>
@@ -28779,7 +28779,7 @@
         <v>286.0393290313609</v>
       </c>
       <c r="V19" t="n">
-        <v>132.4669676838678</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
         <v>286.0925768874155</v>
@@ -28788,7 +28788,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.7486738677682</v>
+        <v>98.27929048469856</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="C20" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="D20" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="E20" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="F20" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="G20" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="H20" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="I20" t="n">
         <v>184.8328653437042</v>
@@ -28858,16 +28858,16 @@
         <v>251.4354494490053</v>
       </c>
       <c r="V20" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="W20" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="X20" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="Y20" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
     </row>
     <row r="21">
@@ -28883,19 +28883,19 @@
         <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>25.6430401915742</v>
+        <v>27.26293207821961</v>
       </c>
       <c r="E21" t="n">
-        <v>35.56405032410247</v>
+        <v>35.56405032410417</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>23.03684870047964</v>
       </c>
       <c r="G21" t="n">
         <v>135.7402095277565</v>
       </c>
       <c r="H21" t="n">
-        <v>107.7293247704514</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>76.75987979576297</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>77.12411314855666</v>
       </c>
       <c r="S21" t="n">
         <v>163.7050004481646</v>
@@ -28940,13 +28940,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>221.0040270147475</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>83.20176803551466</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -28956,13 +28956,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.46218079145692</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
-        <v>28.536183131448</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E22" t="n">
         <v>146.9746241731992</v>
@@ -28971,7 +28971,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>167.6523306688805</v>
+        <v>47.18294728581087</v>
       </c>
       <c r="H22" t="n">
         <v>159.5246303772757</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>59.89355583796826</v>
       </c>
       <c r="R22" t="n">
         <v>162.723153487679</v>
@@ -29016,7 +29016,7 @@
         <v>286.0393290313609</v>
       </c>
       <c r="V22" t="n">
-        <v>252.9363510669392</v>
+        <v>206.8906679128119</v>
       </c>
       <c r="W22" t="n">
         <v>286.0925768874155</v>
@@ -29025,7 +29025,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.7486738677682</v>
+        <v>98.27929048469856</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="C23" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="D23" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="E23" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="F23" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="G23" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="H23" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="I23" t="n">
         <v>184.8328653437042</v>
@@ -29098,13 +29098,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="X23" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
       <c r="Y23" t="n">
-        <v>328.533221522519</v>
+        <v>328.5332215225196</v>
       </c>
     </row>
     <row r="24">
@@ -29114,10 +29114,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>44.90274222727517</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>50.55620054433133</v>
       </c>
       <c r="D24" t="n">
         <v>146.1124235746456</v>
@@ -29165,25 +29165,25 @@
         <v>77.12411314855666</v>
       </c>
       <c r="S24" t="n">
-        <v>57.59556756435538</v>
+        <v>163.7050004481646</v>
       </c>
       <c r="T24" t="n">
-        <v>76.772457198769</v>
+        <v>197.2418405818404</v>
       </c>
       <c r="U24" t="n">
-        <v>104.1691752185189</v>
+        <v>224.6385586015903</v>
       </c>
       <c r="V24" t="n">
-        <v>111.4393476565838</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>83.99224622540861</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>97.56171853477831</v>
       </c>
     </row>
     <row r="25">
@@ -29196,7 +29196,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
-        <v>167.3365529312023</v>
+        <v>46.86716954813268</v>
       </c>
       <c r="D25" t="n">
         <v>149.0055665145194</v>
@@ -29205,7 +29205,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
-        <v>146.1590214098045</v>
+        <v>25.68963802673484</v>
       </c>
       <c r="G25" t="n">
         <v>167.6523306688805</v>
@@ -29214,10 +29214,10 @@
         <v>159.5246303772757</v>
       </c>
       <c r="I25" t="n">
-        <v>26.15416043123524</v>
+        <v>146.6235438143066</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>72.06468585899248</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>59.89355583796826</v>
       </c>
       <c r="R25" t="n">
         <v>162.723153487679</v>
@@ -29256,10 +29256,10 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>179.4710661881886</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
-        <v>226.1403599323093</v>
+        <v>108.0299909191896</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="C26" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="D26" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="E26" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="F26" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="G26" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="H26" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="I26" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="J26" t="n">
-        <v>162.0455866475308</v>
+        <v>160.0311887495423</v>
       </c>
       <c r="K26" t="n">
-        <v>162.0455866475308</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>162.0455866475308</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>162.0455866475308</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="R26" t="n">
-        <v>160.031188749551</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="S26" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="T26" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="U26" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="V26" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="W26" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="X26" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="Y26" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
     </row>
     <row r="27">
@@ -29366,13 +29366,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>6.438486900848744</v>
+        <v>135.7402095277565</v>
       </c>
       <c r="H27" t="n">
-        <v>107.7293247704514</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>76.75987979576297</v>
+        <v>55.18748193930561</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29402,13 +29402,13 @@
         <v>77.12411314855666</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="T27" t="n">
-        <v>162.0455866475308</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29430,10 +29430,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="C28" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="D28" t="n">
         <v>149.0055665145194</v>
@@ -29445,22 +29445,22 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="H28" t="n">
         <v>159.5246303772757</v>
       </c>
       <c r="I28" t="n">
-        <v>146.6235438143066</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="J28" t="n">
-        <v>72.06468585899248</v>
+        <v>151.4522743625541</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -29475,31 +29475,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>154.7031871747594</v>
+        <v>59.89355583796826</v>
       </c>
       <c r="R28" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="S28" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="T28" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="U28" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="V28" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="W28" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="X28" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="Y28" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="C29" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="D29" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="E29" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="F29" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="G29" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="H29" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="I29" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="J29" t="n">
-        <v>160.0311887495501</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>162.0455866475308</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>162.0455866475308</v>
+        <v>160.0311887495424</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="N29" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="R29" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="S29" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="T29" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="U29" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="V29" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="W29" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="X29" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="Y29" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
     </row>
     <row r="30">
@@ -29591,7 +29591,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>162.0455866475308</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -29603,10 +29603,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>6.438486900848517</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>107.7293247704514</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>76.75987979576297</v>
@@ -29639,10 +29639,10 @@
         <v>77.12411314855666</v>
       </c>
       <c r="S30" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -29654,7 +29654,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>114.167811671299</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29667,10 +29667,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="C31" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
@@ -29682,7 +29682,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="H31" t="n">
         <v>159.5246303772757</v>
@@ -29694,13 +29694,13 @@
         <v>72.06468585899248</v>
       </c>
       <c r="K31" t="n">
-        <v>162.0455866475308</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>154.7031871747544</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29712,31 +29712,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>154.7031871747594</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="R31" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="S31" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="T31" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="U31" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="V31" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="W31" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="X31" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="Y31" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="C32" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="D32" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="E32" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="F32" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="G32" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="H32" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="I32" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="J32" t="n">
-        <v>162.0455866475308</v>
+        <v>160.0311887495424</v>
       </c>
       <c r="K32" t="n">
-        <v>160.03118874955</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>162.0455866475308</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="N32" t="n">
-        <v>162.0455866475308</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="P32" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="R32" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="S32" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="T32" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="U32" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="V32" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="W32" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="X32" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="Y32" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
     </row>
     <row r="33">
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>114.1678116712997</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -29834,19 +29834,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>55.18748193930557</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.7402095277565</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>76.75987979576297</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29876,10 +29876,10 @@
         <v>77.12411314855666</v>
       </c>
       <c r="S33" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -29888,7 +29888,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>162.0455866475308</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -29904,22 +29904,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="C34" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="D34" t="n">
-        <v>153.834297062772</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="E34" t="n">
-        <v>146.9746241731992</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="G34" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="H34" t="n">
         <v>159.5246303772757</v>
@@ -29928,7 +29928,7 @@
         <v>146.6235438143066</v>
       </c>
       <c r="J34" t="n">
-        <v>162.0455866475308</v>
+        <v>72.06468585899248</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29940,40 +29940,40 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>162.0455866475308</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>110.7056393296841</v>
       </c>
       <c r="Q34" t="n">
-        <v>59.89355583796826</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="R34" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="S34" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="T34" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="U34" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="V34" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="W34" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="X34" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
       <c r="Y34" t="n">
-        <v>162.0455866475308</v>
+        <v>162.0455866475312</v>
       </c>
     </row>
     <row r="35">
@@ -30004,10 +30004,10 @@
         <v>193.8120369573057</v>
       </c>
       <c r="I35" t="n">
-        <v>184.8328653437042</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>96.64579276036557</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30019,19 +30019,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
         <v>193.8120369573057</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>190.8113638057946</v>
-      </c>
-      <c r="R35" t="n">
-        <v>108.6256375254776</v>
       </c>
       <c r="S35" t="n">
         <v>193.8120369573057</v>
@@ -30065,10 +30065,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>155.8614926031351</v>
       </c>
       <c r="D36" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -30080,10 +30080,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>107.7293247704514</v>
       </c>
       <c r="I36" t="n">
-        <v>10.24724414124334</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,13 +30110,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>77.12411314855666</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>163.7050004481646</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30128,10 +30128,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>193.8120369573057</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>193.8120369573057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30192,7 +30192,7 @@
         <v>162.723153487679</v>
       </c>
       <c r="S37" t="n">
-        <v>193.8120369573057</v>
+        <v>193.5773019469925</v>
       </c>
       <c r="T37" t="n">
         <v>193.8120369573057</v>
@@ -30207,7 +30207,7 @@
         <v>193.8120369573057</v>
       </c>
       <c r="X37" t="n">
-        <v>193.5773019469924</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="Y37" t="n">
         <v>193.8120369573057</v>
@@ -30241,7 +30241,7 @@
         <v>193.8120369573057</v>
       </c>
       <c r="I38" t="n">
-        <v>184.8328653437042</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="J38" t="n">
         <v>193.8120369573057</v>
@@ -30250,13 +30250,13 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>181.8321921921938</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>190.8113638057948</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30314,13 +30314,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>135.7402095277565</v>
+        <v>39.67174390713926</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>76.75987979576297</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,28 +30347,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.12411314855666</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>137.6716153496755</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
         <v>193.8120369573057</v>
       </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>193.8120369573057</v>
       </c>
     </row>
     <row r="40">
@@ -30432,7 +30432,7 @@
         <v>193.8120369573057</v>
       </c>
       <c r="T40" t="n">
-        <v>193.8120369573057</v>
+        <v>193.5773019469923</v>
       </c>
       <c r="U40" t="n">
         <v>193.8120369573057</v>
@@ -30447,7 +30447,7 @@
         <v>193.8120369573057</v>
       </c>
       <c r="Y40" t="n">
-        <v>193.5773019469926</v>
+        <v>193.8120369573057</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>193.8120369573057</v>
       </c>
       <c r="I41" t="n">
-        <v>184.8328653437042</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30487,7 +30487,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>96.64579276036596</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30499,10 +30499,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
         <v>193.8120369573057</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>105.6249643739665</v>
       </c>
       <c r="R41" t="n">
         <v>193.8120369573057</v>
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -30551,10 +30551,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.7402095277565</v>
       </c>
       <c r="H42" t="n">
-        <v>107.7293247704514</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>76.75987979576297</v>
@@ -30590,10 +30590,10 @@
         <v>163.7050004481646</v>
       </c>
       <c r="T42" t="n">
-        <v>193.8120369573057</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>1.977499658816186</v>
+        <v>2.406526248471181</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30666,7 +30666,7 @@
         <v>162.723153487679</v>
       </c>
       <c r="S43" t="n">
-        <v>193.8120369573057</v>
+        <v>193.5773019469929</v>
       </c>
       <c r="T43" t="n">
         <v>193.8120369573057</v>
@@ -30681,7 +30681,7 @@
         <v>193.8120369573057</v>
       </c>
       <c r="X43" t="n">
-        <v>193.5773019469926</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="Y43" t="n">
         <v>193.8120369573057</v>
@@ -30715,19 +30715,19 @@
         <v>193.8120369573057</v>
       </c>
       <c r="I44" t="n">
+        <v>184.8328653437042</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2.496750036002759</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>193.8120369573057</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>193.8120369573057</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>188.3146137697927</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30739,7 +30739,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>181.8321921921931</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>108.6256375254776</v>
@@ -30776,7 +30776,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -30788,13 +30788,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>135.7402095277565</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>107.7293247704514</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>76.75987979576297</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,19 +30821,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>77.12411314855666</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>163.7050004481646</v>
       </c>
       <c r="T45" t="n">
-        <v>193.8120369573057</v>
+        <v>24.7639526887202</v>
       </c>
       <c r="U45" t="n">
-        <v>97.74357133668892</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>193.8120369573057</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30903,7 +30903,7 @@
         <v>162.723153487679</v>
       </c>
       <c r="S46" t="n">
-        <v>193.5773019469926</v>
+        <v>193.5773019469929</v>
       </c>
       <c r="T46" t="n">
         <v>193.8120369573057</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>44.23270639327571</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>120.4693833830714</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="L11" t="n">
-        <v>120.4693833830714</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>120.4693833830714</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>71.36922715613618</v>
+        <v>54.4242691370126</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>61.17766441239769</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>120.4693833830714</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>115.6019335494103</v>
       </c>
       <c r="N12" t="n">
-        <v>120.4693833830714</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="O12" t="n">
-        <v>117.9483792117461</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="Q12" t="n">
-        <v>118.1229377207372</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>44.23270639327571</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>120.4693833830714</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>120.4693833830714</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>115.6019335494103</v>
       </c>
       <c r="N14" t="n">
-        <v>120.4693833830714</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="O14" t="n">
-        <v>71.36922715613618</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>34.20534860233023</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>115.6019335494103</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="N15" t="n">
-        <v>83.74303060941588</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="O15" t="n">
-        <v>120.4693833830714</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="P15" t="n">
-        <v>120.4693833830714</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>118.1229377207372</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>44.23270639327571</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>120.4693833830714</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>120.4693833830714</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="M17" t="n">
-        <v>120.4693833830714</v>
+        <v>54.4242691370126</v>
       </c>
       <c r="N17" t="n">
-        <v>71.36922715613618</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>61.17766441239769</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35917,7 +35917,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>34.20534860233023</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>83.74303060941253</v>
       </c>
       <c r="N18" t="n">
-        <v>120.4693833830714</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>120.4693833830714</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>83.74303060941587</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>118.1229377207372</v>
@@ -36121,25 +36121,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>120.4693833830714</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="N20" t="n">
-        <v>54.42426913701421</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="O20" t="n">
-        <v>120.4693833830714</v>
+        <v>115.6019335494103</v>
       </c>
       <c r="P20" t="n">
-        <v>120.4693833830714</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>61.17766441239769</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36154,7 +36154,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>34.20534860233023</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>120.4693833830714</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>120.4693833830714</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>120.4693833830714</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="O21" t="n">
-        <v>81.39658494708168</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>117.9483792117427</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>118.1229377207372</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,22 +36355,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>44.23270639327571</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>120.4693833830714</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>120.4693833830714</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="M23" t="n">
-        <v>120.4693833830714</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="N23" t="n">
-        <v>71.36922715613618</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>115.6019335494103</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>34.20534860233023</v>
       </c>
       <c r="K24" t="n">
-        <v>120.4693833830714</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="L24" t="n">
-        <v>120.4693833830714</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="M24" t="n">
-        <v>120.4693833830714</v>
+        <v>120.4693833830697</v>
       </c>
       <c r="N24" t="n">
-        <v>81.39658494708168</v>
+        <v>81.39658494708007</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>206.2782930408065</v>
+        <v>204.263895142818</v>
       </c>
       <c r="K26" t="n">
-        <v>351.8506572146839</v>
+        <v>189.8050705671532</v>
       </c>
       <c r="L26" t="n">
-        <v>450.0095787047178</v>
+        <v>287.963992057187</v>
       </c>
       <c r="M26" t="n">
-        <v>497.8269659242493</v>
+        <v>335.7813792767184</v>
       </c>
       <c r="N26" t="n">
-        <v>487.5863455559647</v>
+        <v>487.5863455559652</v>
       </c>
       <c r="O26" t="n">
-        <v>260.8046130822878</v>
+        <v>422.850199729819</v>
       </c>
       <c r="P26" t="n">
-        <v>185.2787910468427</v>
+        <v>347.3243776943739</v>
       </c>
       <c r="Q26" t="n">
-        <v>61.17766441239769</v>
+        <v>223.2232510599289</v>
       </c>
       <c r="R26" t="n">
-        <v>51.40555122407344</v>
+        <v>53.41994912205357</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36747,16 +36747,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>15.42204283322457</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>79.38758850356163</v>
       </c>
       <c r="K28" t="n">
         <v>12.79068645023799</v>
       </c>
       <c r="L28" t="n">
-        <v>234.7805496412223</v>
+        <v>234.7805496412227</v>
       </c>
       <c r="M28" t="n">
         <v>87.388718890966</v>
@@ -36771,7 +36771,7 @@
         <v>34.81733014751178</v>
       </c>
       <c r="Q28" t="n">
-        <v>94.80963133679116</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>204.2638951428258</v>
+        <v>44.23270639327571</v>
       </c>
       <c r="K29" t="n">
-        <v>351.8506572146839</v>
+        <v>189.8050705671532</v>
       </c>
       <c r="L29" t="n">
-        <v>450.0095787047178</v>
+        <v>447.9951808067294</v>
       </c>
       <c r="M29" t="n">
-        <v>335.7813792767184</v>
+        <v>497.8269659242496</v>
       </c>
       <c r="N29" t="n">
-        <v>487.5863455559647</v>
+        <v>487.5863455559652</v>
       </c>
       <c r="O29" t="n">
-        <v>260.8046130822878</v>
+        <v>422.850199729819</v>
       </c>
       <c r="P29" t="n">
         <v>185.2787910468427</v>
       </c>
       <c r="Q29" t="n">
-        <v>223.2232510599285</v>
+        <v>223.2232510599289</v>
       </c>
       <c r="R29" t="n">
-        <v>53.41994912205318</v>
+        <v>53.41994912205357</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36990,13 +36990,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>174.8362730977688</v>
+        <v>12.79068645023799</v>
       </c>
       <c r="L31" t="n">
         <v>72.73496299369151</v>
       </c>
       <c r="M31" t="n">
-        <v>87.388718890966</v>
+        <v>242.0919060657205</v>
       </c>
       <c r="N31" t="n">
         <v>90.50400431230184</v>
@@ -37008,7 +37008,7 @@
         <v>34.81733014751178</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.80963133679116</v>
+        <v>102.1520308095629</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>206.2782930408065</v>
+        <v>204.2638951428181</v>
       </c>
       <c r="K32" t="n">
-        <v>349.8362593167031</v>
+        <v>189.8050705671532</v>
       </c>
       <c r="L32" t="n">
-        <v>450.0095787047178</v>
+        <v>287.963992057187</v>
       </c>
       <c r="M32" t="n">
-        <v>335.7813792767184</v>
+        <v>497.8269659242496</v>
       </c>
       <c r="N32" t="n">
-        <v>487.5863455559648</v>
+        <v>325.540758908434</v>
       </c>
       <c r="O32" t="n">
-        <v>260.8046130822878</v>
+        <v>422.850199729819</v>
       </c>
       <c r="P32" t="n">
-        <v>347.3243776943735</v>
+        <v>347.3243776943739</v>
       </c>
       <c r="Q32" t="n">
-        <v>61.17766441239769</v>
+        <v>223.2232510599289</v>
       </c>
       <c r="R32" t="n">
-        <v>53.4199491220532</v>
+        <v>53.41994912205357</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>4.82873054825261</v>
+        <v>13.04002013301181</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>15.07096247433199</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>15.88656523772667</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>89.98090078853832</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>12.79068645023799</v>
@@ -37236,16 +37236,16 @@
         <v>87.388718890966</v>
       </c>
       <c r="N34" t="n">
-        <v>252.5495909598326</v>
+        <v>90.50400431230184</v>
       </c>
       <c r="O34" t="n">
         <v>68.10358480784066</v>
       </c>
       <c r="P34" t="n">
-        <v>34.81733014751178</v>
+        <v>145.5229694771959</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>102.1520308095629</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>8.979171613601547</v>
       </c>
       <c r="J35" t="n">
-        <v>44.23270639327571</v>
+        <v>140.8784991536413</v>
       </c>
       <c r="K35" t="n">
         <v>189.8050705671532</v>
@@ -37315,19 +37315,19 @@
         <v>335.7813792767184</v>
       </c>
       <c r="N35" t="n">
-        <v>325.540758908434</v>
+        <v>519.3527958657397</v>
       </c>
       <c r="O35" t="n">
         <v>260.8046130822878</v>
       </c>
       <c r="P35" t="n">
-        <v>379.0908280041485</v>
+        <v>185.2787910468427</v>
       </c>
       <c r="Q35" t="n">
-        <v>251.9890282181923</v>
+        <v>61.17766441239769</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>85.18639943182811</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>4.652367408190631</v>
+        <v>4.652367408191083</v>
       </c>
       <c r="K36" t="n">
         <v>186.3468467195359</v>
@@ -37537,22 +37537,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>8.979171613601576</v>
       </c>
       <c r="J38" t="n">
-        <v>238.0447433505814</v>
+        <v>238.0447433505815</v>
       </c>
       <c r="K38" t="n">
         <v>189.8050705671532</v>
       </c>
       <c r="L38" t="n">
-        <v>287.963992057187</v>
+        <v>469.7961842493808</v>
       </c>
       <c r="M38" t="n">
         <v>335.7813792767184</v>
       </c>
       <c r="N38" t="n">
-        <v>516.3521227142288</v>
+        <v>325.540758908434</v>
       </c>
       <c r="O38" t="n">
         <v>260.8046130822878</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>4.652367408190631</v>
+        <v>34.20534860233023</v>
       </c>
       <c r="K39" t="n">
         <v>186.3468467195359</v>
@@ -37640,7 +37640,7 @@
         <v>254.6169492077444</v>
       </c>
       <c r="Q39" t="n">
-        <v>118.1229377207372</v>
+        <v>88.56995652659779</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>8.979171613601491</v>
       </c>
       <c r="J41" t="n">
         <v>44.23270639327571</v>
@@ -37783,7 +37783,7 @@
         <v>189.8050705671532</v>
       </c>
       <c r="L41" t="n">
-        <v>287.963992057187</v>
+        <v>384.609784817553</v>
       </c>
       <c r="M41" t="n">
         <v>335.7813792767184</v>
@@ -37795,13 +37795,13 @@
         <v>260.8046130822878</v>
       </c>
       <c r="P41" t="n">
-        <v>379.0908280041485</v>
+        <v>185.2787910468427</v>
       </c>
       <c r="Q41" t="n">
-        <v>166.8026287863642</v>
+        <v>254.9897013697033</v>
       </c>
       <c r="R41" t="n">
-        <v>85.18639943182811</v>
+        <v>85.18639943182805</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>4.652367408190631</v>
+        <v>34.20534860233023</v>
       </c>
       <c r="K42" t="n">
         <v>186.3468467195359</v>
@@ -37877,7 +37877,7 @@
         <v>254.6169492077444</v>
       </c>
       <c r="Q42" t="n">
-        <v>118.1229377207372</v>
+        <v>88.56995652659779</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,19 +38011,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8.979171613601547</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>44.23270639327571</v>
+        <v>46.72945642927847</v>
       </c>
       <c r="K44" t="n">
-        <v>383.6171075244589</v>
+        <v>189.8050705671532</v>
       </c>
       <c r="L44" t="n">
-        <v>287.963992057187</v>
+        <v>481.7760290144927</v>
       </c>
       <c r="M44" t="n">
-        <v>335.7813792767184</v>
+        <v>524.0959930465111</v>
       </c>
       <c r="N44" t="n">
         <v>325.540758908434</v>
@@ -38035,7 +38035,7 @@
         <v>185.2787910468427</v>
       </c>
       <c r="Q44" t="n">
-        <v>243.0098566045908</v>
+        <v>61.17766441239769</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>4.652367408190631</v>
+        <v>4.652367408191083</v>
       </c>
       <c r="K45" t="n">
         <v>186.3468467195359</v>
